--- a/spreadsheet/lz_checklist.en.xlsx
+++ b/spreadsheet/lz_checklist.en.xlsx
@@ -5884,12 +5884,12 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J105" s="23" t="n"/>

--- a/spreadsheet/lz_checklist.en.xlsx
+++ b/spreadsheet/lz_checklist.en.xlsx
@@ -1822,7 +1822,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I22" s="16" t="inlineStr">
@@ -1922,7 +1922,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I24" s="16" t="inlineStr">
@@ -1972,7 +1972,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I25" s="16" t="inlineStr">
@@ -2022,7 +2022,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I26" s="16" t="inlineStr">
@@ -2072,7 +2072,7 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
@@ -2117,7 +2117,7 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
@@ -11016,7 +11016,13 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations count="3">
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>

--- a/spreadsheet/lz_checklist.en.xlsx
+++ b/spreadsheet/lz_checklist.en.xlsx
@@ -7048,7 +7048,7 @@
       <c r="D129" s="22" t="n"/>
       <c r="E129" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -8499,7 +8499,7 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
@@ -8544,7 +8544,7 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>

--- a/spreadsheet/lz_checklist.en.xlsx
+++ b/spreadsheet/lz_checklist.en.xlsx
@@ -11016,7 +11016,19 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="7">
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>

--- a/spreadsheet/lz_checklist.en.xlsx
+++ b/spreadsheet/lz_checklist.en.xlsx
@@ -1422,7 +1422,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-b2c/user-overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I14" s="16" t="inlineStr">

--- a/spreadsheet/lz_checklist.en.xlsx
+++ b/spreadsheet/lz_checklist.en.xlsx
@@ -1795,17 +1795,17 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Enforce reasonably flat management group hierarchy with no more than three to four levels, ideally</t>
+          <t>Avoid using on-premises synced accounts for Azure AD role assignments.</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
@@ -1822,19 +1822,19 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J22" s="23" t="n"/>
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Enforce or appended resource tags through Azure Policy</t>
+          <t>Enforce reasonably flat management group hierarchy with no more than three to four levels, ideally</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
@@ -1872,19 +1872,19 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J23" s="23" t="n"/>
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Enforce a sandbox management group to allow users to immediately experiment with Azure</t>
+          <t>Enforce or appended resource tags through Azure Policy</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
@@ -1922,19 +1922,19 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
         </is>
       </c>
       <c r="I24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J24" s="23" t="n"/>
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Enforce a platform management group under the root management group to support common platform policy and Azure role assignment</t>
+          <t>Enforce a sandbox management group to allow users to immediately experiment with Azure</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
@@ -1984,7 +1984,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Enforce a dedicated connectivity subscription in the Platform management group to host an Azure Virtual WAN hub, private Domain Name System (DNS), ExpressRoute circuit, and other networking resources.</t>
+          <t>Enforce a platform management group under the root management group to support common platform policy and Azure role assignment</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
@@ -2034,7 +2034,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Enforce no subscriptions are placed under the root management group</t>
+          <t>Enforce a dedicated connectivity subscription in the Platform management group to host an Azure Virtual WAN hub, private Domain Name System (DNS), ExpressRoute circuit, and other networking resources.</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -2072,14 +2072,19 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
+          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2100,7 +2105,7 @@
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Enforce that only privileged users can operate management groups in the tenant by enabling Azure RBAC authorization in the management group hierarchy settings</t>
+          <t>Enforce no subscriptions are placed under the root management group</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
@@ -2117,14 +2122,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2145,7 +2150,7 @@
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Enforce management groups under the root-level management group to represent the types of workloads, based on their security, compliance, connectivity, and feature needs.</t>
+          <t>Enforce that only privileged users can operate management groups in the tenant by enabling Azure RBAC authorization in the management group hierarchy settings</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
@@ -2162,14 +2167,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2190,13 +2195,13 @@
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Enforce a process to make resource owners aware of their roles and responsibilities, access review, budget review, policy compliance and remediate when necessary.</t>
+          <t>Enforce management groups under the root-level management group to represent the types of workloads, based on their security, compliance, connectivity, and feature needs.</t>
         </is>
       </c>
       <c r="D30" s="22" t="n"/>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2214,7 +2219,7 @@
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2235,13 +2240,13 @@
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Enusre that all subscription owners and IT core team are aware of subscription support limitations as part of workload design sessions.</t>
+          <t>Enforce a process to make resource owners aware of their roles and responsibilities, access review, budget review, policy compliance and remediate when necessary.</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
       <c r="E31" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2252,14 +2257,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2280,13 +2285,13 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Enforce the use of reserved instances to prioritize reserved capacity in required regions. Then the workload will have the required capacity even when there's a high demand for that resource in a specific region.</t>
+          <t>Enusre that all subscription owners and IT core team are aware of subscription support limitations as part of workload design sessions.</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
       <c r="E32" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2297,19 +2302,15 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
-        </is>
-      </c>
-      <c r="I32" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/improve-reliability-modern-operations/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
+      <c r="I32" s="16" t="n"/>
       <c r="J32" s="23" t="n"/>
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2330,7 +2331,7 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Enforce a dashboard, workbook, or manual process to monitor used capacity levels</t>
+          <t>Enforce the use of reserved instances to prioritize reserved capacity in required regions. Then the workload will have the required capacity even when there's a high demand for that resource in a specific region.</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -2347,19 +2348,19 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+          <t>https://docs.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
         </is>
       </c>
       <c r="I33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/improve-reliability-modern-operations/</t>
         </is>
       </c>
       <c r="J33" s="23" t="n"/>
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2380,13 +2381,13 @@
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Ensure required services and features are available within the chosen deployment regions</t>
+          <t>Enforce a dashboard, workbook, or manual process to monitor used capacity levels</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2397,19 +2398,19 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
         </is>
       </c>
       <c r="I34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://docs.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J34" s="23" t="n"/>
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2430,13 +2431,13 @@
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Enforce a process for cost management</t>
+          <t>Ensure required services and features are available within the chosen deployment regions</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2447,19 +2448,19 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/control-spending-manage-bills/</t>
+          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J35" s="23" t="n"/>
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2480,13 +2481,13 @@
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>If AD on Windows Server, establish a dedicated identity subscription in the Platform management group to host Windows Server Active Directory domain controllers</t>
+          <t>Enforce a process for cost management</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2497,19 +2498,19 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J36" s="23" t="n"/>
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2530,7 +2531,7 @@
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Ensure tags are used for billing and cost management</t>
+          <t>If AD on Windows Server, establish a dedicated identity subscription in the Platform management group to host Windows Server Active Directory domain controllers</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
@@ -2547,19 +2548,19 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J37" s="23" t="n"/>
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2570,17 +2571,17 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations</t>
+          <t>Ensure tags are used for billing and cost management</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
@@ -2597,19 +2598,19 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
         </is>
       </c>
       <c r="I38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J38" s="23" t="n"/>
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2630,7 +2631,7 @@
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Ensure to use IP addresses from the address allocation for private internets (RFC 1918).</t>
+          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
@@ -2659,7 +2660,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2680,7 +2681,7 @@
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
+          <t>Ensure to use IP addresses from the address allocation for private internets (RFC 1918).</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
@@ -2709,7 +2710,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2730,7 +2731,7 @@
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Ensure no public IP address range (CIDR block) for VNETs, especially if not owned by your organization</t>
+          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -2759,7 +2760,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2780,7 +2781,7 @@
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
+          <t>Ensure no public IP address range (CIDR block) for VNETs, especially if not owned by your organization</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2797,19 +2798,19 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J42" s="23" t="n"/>
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2830,7 +2831,7 @@
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution. Create a delegated zone for name resolution (such as 'azure.contoso.com').</t>
+          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
@@ -2847,7 +2848,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I43" s="16" t="inlineStr">
@@ -2859,7 +2860,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2880,7 +2881,7 @@
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>For environments where name resolution across Azure and on-premises is required, use existing DNS infrastructure (for example, Active Directory integrated DNS) deployed onto at least two virtual machines (VMs). Configure DNS settings in virtual networks to use those DNS servers.</t>
+          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution. Create a delegated zone for name resolution (such as 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2909,7 +2910,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2930,7 +2931,7 @@
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
+          <t>For environments where name resolution across Azure and on-premises is required, use existing DNS infrastructure (for example, Active Directory integrated DNS) deployed onto at least two virtual machines (VMs). Configure DNS settings in virtual networks to use those DNS servers.</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
@@ -2948,13 +2949,18 @@
       <c r="H45" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2975,7 +2981,7 @@
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
+          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2992,19 +2998,15 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
-        </is>
-      </c>
-      <c r="I46" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I46" s="16" t="n"/>
       <c r="J46" s="23" t="n"/>
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3020,12 +3022,12 @@
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
+          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -3042,19 +3044,19 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J47" s="23" t="n"/>
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3075,7 +3077,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
+          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3092,14 +3094,19 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3120,7 +3127,7 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Use Virtual Hub Routing features to further segment traffic between VNets and branches.</t>
+          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3144,7 +3151,7 @@
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3165,7 +3172,7 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Connect Virtual WAN hubs to on-premises datacenters by using ExpressRoute</t>
+          <t>Use Virtual Hub Routing features to further segment traffic between VNets and branches.</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3185,16 +3192,12 @@
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
-      <c r="I50" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
-        </is>
-      </c>
+      <c r="I50" s="16" t="n"/>
       <c r="J50" s="23" t="n"/>
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3215,7 +3218,7 @@
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Connect branches and remote locations to the nearest Virtual WAN hub via Site-to-Site VPN, or enable branch connectivity to Virtual WAN via an SD-WAN partner solution.</t>
+          <t>Connect Virtual WAN hubs to on-premises datacenters by using ExpressRoute</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3237,14 +3240,14 @@
       </c>
       <c r="I51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J51" s="23" t="n"/>
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3265,7 +3268,7 @@
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Connect users to the Virtual WAN hub via a Point-to-Site VPN.</t>
+          <t>Connect branches and remote locations to the nearest Virtual WAN hub via Site-to-Site VPN, or enable branch connectivity to Virtual WAN via an SD-WAN partner solution.</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3294,7 +3297,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3315,7 +3318,7 @@
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
+          <t>Connect users to the Virtual WAN hub via a Point-to-Site VPN.</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3333,13 +3336,18 @@
       <c r="H53" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3360,7 +3368,7 @@
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall</t>
+          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3380,16 +3388,12 @@
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
-      <c r="I54" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+      <c r="I54" s="16" t="n"/>
       <c r="J54" s="23" t="n"/>
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3410,7 +3414,7 @@
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>When deploying partner networking technologies and NVAs in VWAN, verify configuration with partner vendor's guidance to ensure there are no conflicting configurations</t>
+          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3428,13 +3432,18 @@
       <c r="H55" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3455,7 +3464,7 @@
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>Ensure that Azure Virtual WAN and Azure Firewall resources are created in the connectivity subscription.</t>
+          <t>When deploying partner networking technologies and NVAs in VWAN, verify configuration with partner vendor's guidance to ensure there are no conflicting configurations</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3479,7 +3488,7 @@
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3500,7 +3509,7 @@
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
+          <t>Ensure that Azure Virtual WAN and Azure Firewall resources are created in the connectivity subscription.</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3517,14 +3526,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3545,7 +3554,7 @@
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
+          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3562,14 +3571,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3585,12 +3594,12 @@
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Consider a network design based on the traditional hub-and-spoke network topology for the following scenarios: a network architecture deployed within a single Azure region; a network architecture spans multiple Azure regions with no need for transitive connectivity between virtual networks for landing zones across regions; a network architecture that spans multiple Azure regions with global VNet peering used to connect virtual networks across Azure regions; a network architecture with no need for transitive connectivity between VPN and ExpressRoute connections; the main hybrid connectivity method in place is ExpressRoute, and the number of VPN connections is less than 30 per VPN gateway; there's a dependency on centralized NVAs and granular routing.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3607,19 +3616,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3640,7 +3644,7 @@
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Ensure that shared services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy Active Directory domain controllers and DNS servers.</t>
+          <t>Consider a network design based on the traditional hub-and-spoke network topology for the following scenarios: a network architecture deployed within a single Azure region; a network architecture spans multiple Azure regions with no need for transitive connectivity between virtual networks for landing zones across regions; a network architecture that spans multiple Azure regions with global VNet peering used to connect virtual networks across Azure regions; a network architecture with no need for transitive connectivity between VPN and ExpressRoute connections; the main hybrid connectivity method in place is ExpressRoute, and the number of VPN connections is less than 30 per VPN gateway; there's a dependency on centralized NVAs and granular routing.</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3657,14 +3661,19 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3685,7 +3694,7 @@
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>When deploying partner networking technologies or NVAs, follow the partner vendor's guidance</t>
+          <t>Ensure that shared services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy Active Directory domain controllers and DNS servers.</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3702,14 +3711,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3730,7 +3739,7 @@
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Do not deploy inbound L7 services such as Azure Application Gateway as a shared service in the central-hub virtual network. Instead, deploy them together with the app in their respective landing zones.</t>
+          <t>When deploying partner networking technologies or NVAs, follow the partner vendor's guidance</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3747,14 +3756,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3775,7 +3784,7 @@
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>If you need transit between ExpressRoute and VPN gateways, use Azure Route Server.</t>
+          <t>Do not deploy inbound L7 services such as Azure Application Gateway as a shared service in the central-hub virtual network. Instead, deploy them together with the app in their respective landing zones.</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3792,7 +3801,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3800,7 +3809,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3821,7 +3830,7 @@
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">For network architectures with multiple hub-and-spoke topologies across Azure regions, use Global Virtual Network Peering to connect landing-zone virtual networks when a small number of landing zones need to communicate across regions. </t>
+          <t>If you need transit between ExpressRoute and VPN gateways, use Azure Route Server.</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3838,19 +3847,15 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I64" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I64" s="16" t="n"/>
       <c r="J64" s="23" t="n"/>
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3871,7 +3876,7 @@
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">When you deploy a hub-and-spoke network architecture in two Azure regions and transit connectivity between all landing zones across regions is required, use ExpressRoute with dual circuits to provide transit connectivity for landing-zone virtual networks across Azure regions. </t>
+          <t xml:space="preserve">For network architectures with multiple hub-and-spoke topologies across Azure regions, use Global Virtual Network Peering to connect landing-zone virtual networks when a small number of landing zones need to communicate across regions. </t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3888,19 +3893,19 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J65" s="23" t="n"/>
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3921,7 +3926,7 @@
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for Networks to monitor the end-to-end state of the networks on Azure.</t>
+          <t xml:space="preserve">When you deploy a hub-and-spoke network architecture in two Azure regions and transit connectivity between all landing zones across regions is required, use ExpressRoute with dual circuits to provide transit connectivity for landing-zone virtual networks across Azure regions. </t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3938,19 +3943,19 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3971,7 +3976,7 @@
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits and the maximum number of prefixes that can be advertised via ExpressRoute</t>
+          <t>Use Azure Monitor for Networks to monitor the end-to-end state of the networks on Azure.</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3988,15 +3993,19 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I67" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I67" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J67" s="23" t="n"/>
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4012,12 +4021,12 @@
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
+          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits and the maximum number of prefixes that can be advertised via ExpressRoute</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -4034,19 +4043,15 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I68" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I68" s="16" t="n"/>
       <c r="J68" s="23" t="n"/>
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4067,7 +4072,7 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
+          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -4084,7 +4089,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I69" s="16" t="inlineStr">
@@ -4096,7 +4101,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4117,7 +4122,7 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
+          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4146,7 +4151,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4167,7 +4172,7 @@
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
+          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4184,7 +4189,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I71" s="16" t="inlineStr">
@@ -4196,7 +4201,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4217,7 +4222,7 @@
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
+          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4234,7 +4239,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I72" s="16" t="inlineStr">
@@ -4246,7 +4251,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4267,7 +4272,7 @@
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
+          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4284,7 +4289,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://docs.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I73" s="16" t="inlineStr">
@@ -4296,7 +4301,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4317,7 +4322,7 @@
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
+          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4346,7 +4351,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4367,7 +4372,7 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Use ExpressRoute Global Reach to connect large offices, regional headquarters, or datacenters connected to Azure via ExpressRoute.</t>
+          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4384,7 +4389,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I75" s="16" t="inlineStr">
@@ -4396,7 +4401,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4417,7 +4422,7 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
+          <t>Use ExpressRoute Global Reach to connect large offices, regional headquarters, or datacenters connected to Azure via ExpressRoute.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4434,7 +4439,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://docs.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I76" s="16" t="inlineStr">
@@ -4446,7 +4451,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4467,7 +4472,7 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Monitor ExpressRoute availability and utilization using built-in Azure Monitor metrics.</t>
+          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
@@ -4484,7 +4489,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I77" s="16" t="inlineStr">
@@ -4496,7 +4501,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4517,7 +4522,7 @@
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Use Connection Monitor for connectivity monitoring across the environment.</t>
+          <t>Monitor ExpressRoute availability and utilization using built-in Azure Monitor metrics.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
@@ -4534,7 +4539,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I78" s="16" t="inlineStr">
@@ -4546,7 +4551,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4567,7 +4572,7 @@
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Don't explicitly use ExpressRoute circuits from a single peering location. Doing so creates a single point of failure and makes the organization susceptible to peering location outages.</t>
+          <t>Use Connection Monitor for connectivity monitoring across the environment.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4584,7 +4589,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I79" s="16" t="inlineStr">
@@ -4596,7 +4601,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4612,12 +4617,12 @@
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>If you need private communication to PaaS services, consider the different options available.</t>
+          <t>Don't explicitly use ExpressRoute circuits from a single peering location. Doing so creates a single point of failure and makes the organization susceptible to peering location outages.</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4634,19 +4639,19 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J80" s="23" t="n"/>
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4667,7 +4672,7 @@
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Azure PaaS services that have been injected into a virtual network still perform management plane operations by using public IP addresses. Ensure that this communication is not broken</t>
+          <t>If you need private communication to PaaS services, consider the different options available.</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4689,14 +4694,14 @@
       </c>
       <c r="I81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J81" s="23" t="n"/>
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4717,7 +4722,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
+          <t>Azure PaaS services that have been injected into a virtual network still perform management plane operations by using public IP addresses. Ensure that this communication is not broken</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4734,19 +4739,19 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J82" s="23" t="n"/>
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4767,7 +4772,7 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Access Azure PaaS services from on-premises via ExpressRoute private peering. This method avoids transiting over the public internet.</t>
+          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4789,14 +4794,14 @@
       </c>
       <c r="I83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J83" s="23" t="n"/>
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4817,7 +4822,7 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Use virtual network service endpoints when Private Link isn't available</t>
+          <t>Access Azure PaaS services from on-premises via ExpressRoute private peering. This method avoids transiting over the public internet.</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4839,14 +4844,14 @@
       </c>
       <c r="I84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J84" s="23" t="n"/>
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4867,7 +4872,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
+          <t>Use virtual network service endpoints when Private Link isn't available</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4896,7 +4901,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4917,7 +4922,7 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
+          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4946,7 +4951,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4967,7 +4972,7 @@
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
+          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4996,7 +5001,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -5012,12 +5017,12 @@
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
@@ -5039,14 +5044,14 @@
       </c>
       <c r="I88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5067,7 +5072,7 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks. Firewall Manager is now in general availability for both Virtual WAN and regular virtual networks.</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
@@ -5084,7 +5089,7 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I89" s="16" t="inlineStr">
@@ -5096,7 +5101,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5117,7 +5122,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks. Firewall Manager is now in general availability for both Virtual WAN and regular virtual networks.</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5146,7 +5151,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5167,7 +5172,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -5196,7 +5201,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5217,7 +5222,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
+          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5239,14 +5244,14 @@
       </c>
       <c r="I92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5267,7 +5272,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5284,7 +5289,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
@@ -5296,7 +5301,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5317,7 +5322,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5334,7 +5339,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
@@ -5346,7 +5351,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5367,7 +5372,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5389,14 +5394,14 @@
       </c>
       <c r="I95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5417,7 +5422,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Protection Standard protection plans to help protect all public endpoints hosted within the virtual networks.</t>
+          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5434,19 +5439,19 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5462,12 +5467,12 @@
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
+          <t>Use Azure DDoS Protection Standard protection plans to help protect all public endpoints hosted within the virtual networks.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5484,19 +5489,19 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J97" s="23" t="n"/>
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5517,7 +5522,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
+          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5534,7 +5539,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
@@ -5546,7 +5551,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5567,7 +5572,7 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
+          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5584,19 +5589,19 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5617,7 +5622,7 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
+          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5634,19 +5639,19 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J100" s="23" t="n"/>
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5667,7 +5672,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Use a DDoS standard protection plan for all public IP addresses in a landing zone.</t>
+          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5689,14 +5694,14 @@
       </c>
       <c r="I101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5717,7 +5722,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
+          <t>Use a DDoS standard protection plan for all public IP addresses in a landing zone.</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5746,7 +5751,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5767,7 +5772,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
+          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5784,7 +5789,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
@@ -5796,7 +5801,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5817,7 +5822,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
+          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5834,7 +5839,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I104" s="16" t="inlineStr">
@@ -5846,7 +5851,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5867,13 +5872,13 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
+          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5884,19 +5889,19 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5912,18 +5917,18 @@
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
+          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5934,19 +5939,19 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5962,12 +5967,12 @@
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
+          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5984,19 +5989,19 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -6012,12 +6017,12 @@
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
+          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -6034,19 +6039,19 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6067,7 +6072,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
+          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6084,7 +6089,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I109" s="16" t="inlineStr">
@@ -6096,7 +6101,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6117,7 +6122,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6134,7 +6139,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I110" s="16" t="inlineStr">
@@ -6146,7 +6151,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6167,7 +6172,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6189,14 +6194,14 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6217,7 +6222,7 @@
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
+          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6239,14 +6244,14 @@
       </c>
       <c r="I112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6267,7 +6272,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
+          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6289,14 +6294,14 @@
       </c>
       <c r="I113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6312,12 +6317,12 @@
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
+          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6337,12 +6342,16 @@
           <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
-      <c r="I114" s="16" t="n"/>
+      <c r="I114" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6363,7 +6372,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>If traffic between Azure regions must be encrypted, use global VNet peering to connect virtual networks across regions.</t>
+          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6380,19 +6389,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6413,7 +6417,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
+          <t>If traffic between Azure regions must be encrypted, use global VNet peering to connect virtual networks across regions.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6430,7 +6434,7 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6442,7 +6446,7 @@
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6458,12 +6462,12 @@
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
+          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6480,19 +6484,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6513,7 +6517,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Evaluate whether the latest version of NSG flow logs provides the level of detail that you need.</t>
+          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6530,15 +6534,19 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I118" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I118" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6559,7 +6567,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
+          <t>Evaluate whether the latest version of NSG flow logs provides the level of detail that you need.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6576,14 +6584,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6604,7 +6612,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6621,7 +6629,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6629,7 +6637,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6640,17 +6648,17 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Inspection</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6667,19 +6675,15 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I121" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="n"/>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6700,7 +6704,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Is the landing zone documented?</t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6715,13 +6719,21 @@
         </is>
       </c>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="16" t="n"/>
-      <c r="I122" s="16" t="n"/>
+      <c r="H122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6742,7 +6754,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+          <t>Is the landing zone documented?</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6757,21 +6769,13 @@
         </is>
       </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H123" s="16" t="n"/>
+      <c r="I123" s="16" t="n"/>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6792,7 +6796,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6821,7 +6825,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6842,7 +6846,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6859,19 +6863,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6892,7 +6896,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6909,19 +6913,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6942,7 +6946,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6959,19 +6963,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6992,7 +6996,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -7009,19 +7013,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -7042,13 +7046,13 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
       <c r="E129" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -7059,14 +7063,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7087,13 +7096,13 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7104,14 +7113,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7132,7 +7141,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7149,14 +7158,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7177,7 +7186,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7194,14 +7203,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7222,7 +7231,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7239,14 +7248,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7267,7 +7276,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7284,14 +7293,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7312,7 +7321,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7329,14 +7338,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7357,7 +7366,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7374,14 +7383,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7402,7 +7411,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7419,14 +7428,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7447,7 +7456,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7464,14 +7473,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7492,7 +7501,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7509,14 +7518,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7527,23 +7536,23 @@
     <row r="140" ht="16.5" customHeight="1" s="13">
       <c r="A140" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7554,14 +7563,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7572,17 +7581,17 @@
     <row r="141" ht="16.5" customHeight="1" s="13">
       <c r="A141" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7599,14 +7608,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7627,13 +7636,13 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7644,14 +7653,14 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7672,7 +7681,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7689,14 +7698,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7717,7 +7726,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7741,7 +7750,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7762,7 +7771,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7786,7 +7795,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7807,7 +7816,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7831,7 +7840,7 @@
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7852,7 +7861,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7869,14 +7878,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7897,7 +7906,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7921,7 +7930,7 @@
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7942,7 +7951,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7959,14 +7968,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7987,7 +7996,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8011,7 +8020,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8032,7 +8041,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8049,14 +8058,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8072,18 +8081,18 @@
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8094,14 +8103,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8117,12 +8126,12 @@
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8139,14 +8148,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8167,13 +8176,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8191,7 +8200,7 @@
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8212,7 +8221,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8229,14 +8238,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8257,7 +8266,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8281,7 +8290,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8302,13 +8311,13 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8326,7 +8335,7 @@
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8347,7 +8356,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8371,7 +8380,7 @@
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8392,13 +8401,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8416,7 +8425,7 @@
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8437,7 +8446,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8461,7 +8470,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8482,7 +8491,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8499,14 +8508,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8527,7 +8536,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8544,14 +8553,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8567,12 +8576,12 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8589,14 +8598,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8612,12 +8621,12 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8634,14 +8643,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8662,7 +8671,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8679,14 +8688,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8707,7 +8716,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8724,14 +8733,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8752,7 +8761,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8769,14 +8778,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8797,7 +8806,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8814,14 +8823,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8842,7 +8851,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8859,14 +8868,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8887,7 +8896,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8911,7 +8920,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8932,7 +8941,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8949,14 +8958,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8965,30 +8974,90 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
@@ -11035,7 +11104,7 @@
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F174" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/lz_checklist.en.xlsx
+++ b/spreadsheet/lz_checklist.en.xlsx
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J9" s="23" t="n"/>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="I11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://docs.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J11" s="23" t="n"/>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="I12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J12" s="23" t="n"/>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="I15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/manage-identity-and-access/</t>
+          <t>https://docs.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J15" s="23" t="n"/>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-your-cloud-data/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J17" s="23" t="n"/>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="I19" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://docs.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J19" s="23" t="n"/>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="I20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
         </is>
       </c>
       <c r="J20" s="23" t="n"/>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="I21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J21" s="23" t="n"/>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Enusre that all subscription owners and IT core team are aware of subscription support limitations as part of workload design sessions.</t>
+          <t>Ensure that all subscription owners and IT core team are aware of subscription support limitations as part of workload design sessions.</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="I33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/improve-reliability-modern-operations/</t>
+          <t>https://docs.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
         </is>
       </c>
       <c r="J33" s="23" t="n"/>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="I36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/control-spending-manage-bills/</t>
+          <t>https://docs.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J36" s="23" t="n"/>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="I39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J39" s="23" t="n"/>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J40" s="23" t="n"/>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="I41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J41" s="23" t="n"/>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="I42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J42" s="23" t="n"/>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="I43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J43" s="23" t="n"/>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="I44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J44" s="23" t="n"/>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J47" s="23" t="n"/>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="I89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J89" s="23" t="n"/>
@@ -5144,7 +5144,7 @@
       </c>
       <c r="I90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J90" s="23" t="n"/>
@@ -5194,7 +5194,7 @@
       </c>
       <c r="I91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J91" s="23" t="n"/>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="I92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J92" s="23" t="n"/>

--- a/spreadsheet/lz_checklist.en.xlsx
+++ b/spreadsheet/lz_checklist.en.xlsx
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Enforce the use of reserved instances to prioritize reserved capacity in required regions. Then the workload will have the required capacity even when there's a high demand for that resource in a specific region.</t>
+          <t>Use Reserved Instances where appropriate to optimize cost and ensure available capacity in target regions. Enforce the use of purchased Reserved Instance VM SKUs via Azure Policy.</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>

--- a/spreadsheet/lz_checklist.en.xlsx
+++ b/spreadsheet/lz_checklist.en.xlsx
@@ -9064,330 +9064,990 @@
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -11104,7 +11764,7 @@
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F174" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/lz_checklist.en.xlsx
+++ b/spreadsheet/lz_checklist.en.xlsx
@@ -5472,7 +5472,7 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Protection Standard protection plans to help protect all public endpoints hosted within the virtual networks.</t>
+          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5722,7 +5722,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Use a DDoS standard protection plan for all public IP addresses in a landing zone.</t>
+          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -11745,7 +11745,7 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
+  <dataValidations count="9">
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
@@ -11762,6 +11762,12 @@
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">

--- a/spreadsheet/lz_checklist.en.xlsx
+++ b/spreadsheet/lz_checklist.en.xlsx
@@ -7456,7 +7456,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>

--- a/spreadsheet/lz_checklist.en.xlsx
+++ b/spreadsheet/lz_checklist.en.xlsx
@@ -4339,7 +4339,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/en-us/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I74" s="16" t="inlineStr">

--- a/spreadsheet/lz_checklist.en.xlsx
+++ b/spreadsheet/lz_checklist.en.xlsx
@@ -4339,7 +4339,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I74" s="16" t="inlineStr">

--- a/spreadsheet/lz_checklist.en.xlsx
+++ b/spreadsheet/lz_checklist.en.xlsx
@@ -2285,7 +2285,7 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Ensure that all subscription owners and IT core team are aware of subscription support limitations as part of workload design sessions.</t>
+          <t>Ensure that all subscription owners and IT core team are aware of subscription resource limitations as part of workload design sessions.</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -4339,7 +4339,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I74" s="16" t="inlineStr">

--- a/spreadsheet/lz_checklist.en.xlsx
+++ b/spreadsheet/lz_checklist.en.xlsx
@@ -11745,7 +11745,7 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="9">
+  <dataValidations count="13">
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
@@ -11762,6 +11762,18 @@
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">

--- a/spreadsheet/lz_checklist.en.xlsx
+++ b/spreadsheet/lz_checklist.en.xlsx
@@ -1305,7 +1305,7 @@
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Enforce centralized and delegated responsibilities to manage resources deployed inside the landing zone based on role and security requirements</t>
+          <t>Enforce centralized and delegated responsibilities to manage resources deployed inside the landing zone, based on role and security requirements</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
@@ -2621,23 +2621,23 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations</t>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2648,19 +2648,15 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I39" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
+      <c r="I39" s="16" t="n"/>
       <c r="J39" s="23" t="n"/>
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2671,17 +2667,17 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Ensure to use IP addresses from the address allocation for private internets (RFC 1918).</t>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
@@ -2698,19 +2694,15 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I40" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
+      <c r="I40" s="16" t="n"/>
       <c r="J40" s="23" t="n"/>
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2721,17 +2713,17 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -2748,19 +2740,19 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J41" s="23" t="n"/>
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2771,17 +2763,17 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Ensure no public IP address range (CIDR block) for VNETs, especially if not owned by your organization</t>
+          <t>Is the landing zone documented?</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2796,21 +2788,13 @@
         </is>
       </c>
       <c r="G42" s="22" t="n"/>
-      <c r="H42" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I42" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+      <c r="H42" s="16" t="n"/>
+      <c r="I42" s="16" t="n"/>
       <c r="J42" s="23" t="n"/>
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2821,17 +2805,17 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
@@ -2848,19 +2832,19 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J43" s="23" t="n"/>
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2871,17 +2855,17 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution. Create a delegated zone for name resolution (such as 'azure.contoso.com').</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2898,19 +2882,19 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J44" s="23" t="n"/>
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2921,17 +2905,17 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>For environments where name resolution across Azure and on-premises is required, use existing DNS infrastructure (for example, Active Directory integrated DNS) deployed onto at least two virtual machines (VMs). Configure DNS settings in virtual networks to use those DNS servers.</t>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
@@ -2948,19 +2932,19 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2971,17 +2955,17 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2998,15 +2982,19 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I46" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I46" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+        </is>
+      </c>
       <c r="J46" s="23" t="n"/>
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3017,17 +3005,17 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -3044,19 +3032,19 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J47" s="23" t="n"/>
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3067,17 +3055,17 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3094,19 +3082,19 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3117,23 +3105,23 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3144,14 +3132,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3162,17 +3150,17 @@
     <row r="50" ht="16.5" customHeight="1" s="13">
       <c r="A50" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B50" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Use Virtual Hub Routing features to further segment traffic between VNets and branches.</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3189,7 +3177,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3197,7 +3185,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3208,17 +3196,17 @@
     <row r="51" ht="16.5" customHeight="1" s="13">
       <c r="A51" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B51" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Connect Virtual WAN hubs to on-premises datacenters by using ExpressRoute</t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3235,19 +3223,15 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I51" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+        </is>
+      </c>
+      <c r="I51" s="16" t="n"/>
       <c r="J51" s="23" t="n"/>
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3258,17 +3242,17 @@
     <row r="52" ht="16.5" customHeight="1" s="13">
       <c r="A52" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B52" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Connect branches and remote locations to the nearest Virtual WAN hub via Site-to-Site VPN, or enable branch connectivity to Virtual WAN via an SD-WAN partner solution.</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3285,19 +3269,15 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I52" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+        </is>
+      </c>
+      <c r="I52" s="16" t="n"/>
       <c r="J52" s="23" t="n"/>
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3308,17 +3288,17 @@
     <row r="53" ht="16.5" customHeight="1" s="13">
       <c r="A53" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Connect users to the Virtual WAN hub via a Point-to-Site VPN.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3335,19 +3315,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3358,17 +3333,17 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3385,7 +3360,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3393,7 +3368,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3404,17 +3379,17 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3431,19 +3406,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3454,17 +3424,17 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>When deploying partner networking technologies and NVAs in VWAN, verify configuration with partner vendor's guidance to ensure there are no conflicting configurations</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3481,14 +3451,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3499,17 +3469,17 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Ensure that Azure Virtual WAN and Azure Firewall resources are created in the connectivity subscription.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3526,14 +3496,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3544,17 +3514,17 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3571,14 +3541,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3589,17 +3559,17 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3616,14 +3586,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3634,17 +3604,17 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Consider a network design based on the traditional hub-and-spoke network topology for the following scenarios: a network architecture deployed within a single Azure region; a network architecture spans multiple Azure regions with no need for transitive connectivity between virtual networks for landing zones across regions; a network architecture that spans multiple Azure regions with global VNet peering used to connect virtual networks across Azure regions; a network architecture with no need for transitive connectivity between VPN and ExpressRoute connections; the main hybrid connectivity method in place is ExpressRoute, and the number of VPN connections is less than 30 per VPN gateway; there's a dependency on centralized NVAs and granular routing.</t>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3661,19 +3631,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3689,12 +3654,12 @@
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Ensure that shared services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy Active Directory domain controllers and DNS servers.</t>
+          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3711,14 +3676,19 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3734,12 +3704,12 @@
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>When deploying partner networking technologies or NVAs, follow the partner vendor's guidance</t>
+          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3756,14 +3726,19 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3779,12 +3754,12 @@
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Do not deploy inbound L7 services such as Azure Application Gateway as a shared service in the central-hub virtual network. Instead, deploy them together with the app in their respective landing zones.</t>
+          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3801,15 +3776,19 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
-        </is>
-      </c>
-      <c r="I63" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+        </is>
+      </c>
+      <c r="I63" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J63" s="23" t="n"/>
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3825,12 +3804,12 @@
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>If you need transit between ExpressRoute and VPN gateways, use Azure Route Server.</t>
+          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3847,15 +3826,19 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
-        </is>
-      </c>
-      <c r="I64" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I64" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J64" s="23" t="n"/>
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3871,12 +3854,12 @@
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">For network architectures with multiple hub-and-spoke topologies across Azure regions, use Global Virtual Network Peering to connect landing-zone virtual networks when a small number of landing zones need to communicate across regions. </t>
+          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3893,19 +3876,19 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J65" s="23" t="n"/>
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3921,12 +3904,12 @@
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">When you deploy a hub-and-spoke network architecture in two Azure regions and transit connectivity between all landing zones across regions is required, use ExpressRoute with dual circuits to provide transit connectivity for landing-zone virtual networks across Azure regions. </t>
+          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3943,19 +3926,19 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3971,12 +3954,12 @@
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for Networks to monitor the end-to-end state of the networks on Azure.</t>
+          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3993,19 +3976,19 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J67" s="23" t="n"/>
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4021,12 +4004,12 @@
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits and the maximum number of prefixes that can be advertised via ExpressRoute</t>
+          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -4043,15 +4026,19 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I68" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I68" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J68" s="23" t="n"/>
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4067,18 +4054,18 @@
       </c>
       <c r="B69" s="22" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
+          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
       <c r="E69" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4089,19 +4076,19 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J69" s="23" t="n"/>
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4117,12 +4104,12 @@
       </c>
       <c r="B70" s="22" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
+          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4139,19 +4126,19 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J70" s="23" t="n"/>
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4167,12 +4154,12 @@
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
+          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4189,19 +4176,15 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
-        </is>
-      </c>
-      <c r="I71" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I71" s="16" t="n"/>
       <c r="J71" s="23" t="n"/>
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4217,12 +4200,12 @@
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
+          <t>If traffic between Azure regions must be encrypted, use global VNet peering to connect virtual networks across regions.</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4239,19 +4222,19 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J72" s="23" t="n"/>
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4267,12 +4250,12 @@
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
+          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4289,19 +4272,19 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J73" s="23" t="n"/>
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4317,18 +4300,18 @@
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4339,19 +4322,15 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
-        </is>
-      </c>
-      <c r="I74" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
+      <c r="I74" s="16" t="n"/>
       <c r="J74" s="23" t="n"/>
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4367,12 +4346,12 @@
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4389,19 +4368,15 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
-        </is>
-      </c>
-      <c r="I75" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
+      <c r="I75" s="16" t="n"/>
       <c r="J75" s="23" t="n"/>
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4417,18 +4392,18 @@
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Use ExpressRoute Global Reach to connect large offices, regional headquarters, or datacenters connected to Azure via ExpressRoute.</t>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4439,19 +4414,15 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
-        </is>
-      </c>
-      <c r="I76" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
+      <c r="I76" s="16" t="n"/>
       <c r="J76" s="23" t="n"/>
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4467,12 +4438,12 @@
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
@@ -4489,19 +4460,15 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
-        </is>
-      </c>
-      <c r="I77" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
+      <c r="I77" s="16" t="n"/>
       <c r="J77" s="23" t="n"/>
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4517,18 +4484,18 @@
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Monitor ExpressRoute availability and utilization using built-in Azure Monitor metrics.</t>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4539,19 +4506,15 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
-        </is>
-      </c>
-      <c r="I78" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
+      <c r="I78" s="16" t="n"/>
       <c r="J78" s="23" t="n"/>
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4567,12 +4530,12 @@
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Use Connection Monitor for connectivity monitoring across the environment.</t>
+          <t>Consider a network design based on the traditional hub-and-spoke network topology for the following scenarios: a network architecture deployed within a single Azure region; a network architecture spans multiple Azure regions with no need for transitive connectivity between virtual networks for landing zones across regions; a network architecture that spans multiple Azure regions with global VNet peering used to connect virtual networks across Azure regions; a network architecture with no need for transitive connectivity between VPN and ExpressRoute connections; the main hybrid connectivity method in place is ExpressRoute, and the number of VPN connections is less than 30 per VPN gateway; there's a dependency on centralized NVAs and granular routing.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4589,19 +4552,19 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J79" s="23" t="n"/>
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4617,12 +4580,12 @@
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Don't explicitly use ExpressRoute circuits from a single peering location. Doing so creates a single point of failure and makes the organization susceptible to peering location outages.</t>
+          <t>Ensure that shared services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy Active Directory domain controllers and DNS servers.</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4639,19 +4602,15 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
-        </is>
-      </c>
-      <c r="I80" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+        </is>
+      </c>
+      <c r="I80" s="16" t="n"/>
       <c r="J80" s="23" t="n"/>
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4667,12 +4626,12 @@
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>If you need private communication to PaaS services, consider the different options available.</t>
+          <t>When deploying partner networking technologies or NVAs, follow the partner vendor's guidance</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4689,19 +4648,15 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I81" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+        </is>
+      </c>
+      <c r="I81" s="16" t="n"/>
       <c r="J81" s="23" t="n"/>
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4717,12 +4672,12 @@
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Azure PaaS services that have been injected into a virtual network still perform management plane operations by using public IP addresses. Ensure that this communication is not broken</t>
+          <t>Do not deploy inbound L7 services such as Azure Application Gateway as a shared service in the central-hub virtual network. Instead, deploy them together with the app in their respective landing zones.</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4739,19 +4694,15 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I82" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+        </is>
+      </c>
+      <c r="I82" s="16" t="n"/>
       <c r="J82" s="23" t="n"/>
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4767,12 +4718,12 @@
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
+          <t>If you need transit between ExpressRoute and VPN gateways, use Azure Route Server.</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4789,19 +4740,15 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I83" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I83" s="16" t="n"/>
       <c r="J83" s="23" t="n"/>
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4817,12 +4764,12 @@
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Access Azure PaaS services from on-premises via ExpressRoute private peering. This method avoids transiting over the public internet.</t>
+          <t xml:space="preserve">For network architectures with multiple hub-and-spoke topologies across Azure regions, use Global Virtual Network Peering to connect landing-zone virtual networks when a small number of landing zones need to communicate across regions. </t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4839,19 +4786,19 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J84" s="23" t="n"/>
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4867,12 +4814,12 @@
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Use virtual network service endpoints when Private Link isn't available</t>
+          <t xml:space="preserve">When you deploy a hub-and-spoke network architecture in two Azure regions and transit connectivity between all landing zones across regions is required, use ExpressRoute with dual circuits to provide transit connectivity for landing-zone virtual networks across Azure regions. </t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4889,19 +4836,19 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
         </is>
       </c>
       <c r="I85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J85" s="23" t="n"/>
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4917,12 +4864,12 @@
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
+          <t>Use Azure Monitor for Networks to monitor the end-to-end state of the networks on Azure.</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4939,19 +4886,19 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
         </is>
       </c>
       <c r="I86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J86" s="23" t="n"/>
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4967,12 +4914,12 @@
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
+          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits and the maximum number of prefixes that can be advertised via ExpressRoute</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4989,19 +4936,15 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I87" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="n"/>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -5017,12 +4960,12 @@
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
+          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
@@ -5039,19 +4982,19 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5067,12 +5010,12 @@
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
@@ -5089,19 +5032,19 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5117,12 +5060,12 @@
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks. Firewall Manager is now in general availability for both Virtual WAN and regular virtual networks.</t>
+          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5139,19 +5082,19 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5167,12 +5110,12 @@
       </c>
       <c r="B91" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -5189,19 +5132,19 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J91" s="23" t="n"/>
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5217,12 +5160,12 @@
       </c>
       <c r="B92" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5239,19 +5182,19 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5267,12 +5210,12 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
+          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5289,19 +5232,19 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J93" s="23" t="n"/>
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5317,12 +5260,12 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5339,19 +5282,19 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J94" s="23" t="n"/>
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5367,12 +5310,12 @@
       </c>
       <c r="B95" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Use ExpressRoute Global Reach to connect large offices, regional headquarters, or datacenters connected to Azure via ExpressRoute.</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5389,19 +5332,19 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5417,12 +5360,12 @@
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5439,19 +5382,19 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5467,12 +5410,12 @@
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
+          <t>Monitor ExpressRoute availability and utilization using built-in Azure Monitor metrics.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5489,19 +5432,19 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J97" s="23" t="n"/>
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5517,12 +5460,12 @@
       </c>
       <c r="B98" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
+          <t>Use Connection Monitor for connectivity monitoring across the environment.</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5539,19 +5482,19 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J98" s="23" t="n"/>
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5567,12 +5510,12 @@
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
+          <t>Don't explicitly use ExpressRoute circuits from a single peering location. Doing so creates a single point of failure and makes the organization susceptible to peering location outages.</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5589,19 +5532,19 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5617,12 +5560,12 @@
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
+          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5639,7 +5582,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
@@ -5651,7 +5594,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5667,12 +5610,12 @@
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
+          <t>Ensure to use IP addresses from the address allocation for private internets (RFC 1918).</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5689,19 +5632,19 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5717,12 +5660,12 @@
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
+          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5739,19 +5682,19 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J102" s="23" t="n"/>
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5767,12 +5710,12 @@
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
+          <t>Ensure no public IP address range (CIDR block) for VNETs, especially if not owned by your organization</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5789,19 +5732,19 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J103" s="23" t="n"/>
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5817,12 +5760,12 @@
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
+          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5839,19 +5782,19 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J104" s="23" t="n"/>
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5867,12 +5810,12 @@
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
+          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution. Create a delegated zone for name resolution (such as 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
@@ -5889,19 +5832,19 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5917,18 +5860,18 @@
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
+          <t>For environments where name resolution across Azure and on-premises is required, use existing DNS infrastructure (for example, Active Directory integrated DNS) deployed onto at least two virtual machines (VMs). Configure DNS settings in virtual networks to use those DNS servers.</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5939,19 +5882,19 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5967,12 +5910,12 @@
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
+          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5989,19 +5932,15 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I107" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I107" s="16" t="n"/>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -6017,12 +5956,12 @@
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
+          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -6039,19 +5978,19 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6067,12 +6006,12 @@
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Inspection</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
+          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6089,19 +6028,19 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J109" s="23" t="n"/>
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6117,12 +6056,12 @@
       </c>
       <c r="B110" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Inspection</t>
         </is>
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
+          <t>Evaluate whether the latest version of NSG flow logs provides the level of detail that you need.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6139,19 +6078,15 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
-        </is>
-      </c>
-      <c r="I110" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I110" s="16" t="n"/>
       <c r="J110" s="23" t="n"/>
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6167,12 +6102,12 @@
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Inspection</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6189,19 +6124,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6217,12 +6147,12 @@
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Inspection</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6239,19 +6169,15 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I112" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="n"/>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6267,12 +6193,12 @@
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6289,19 +6215,19 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6317,12 +6243,12 @@
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
+          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks. Firewall Manager is now in general availability for both Virtual WAN and regular virtual networks.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6339,7 +6265,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I114" s="16" t="inlineStr">
@@ -6351,7 +6277,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6367,12 +6293,12 @@
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
+          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6389,14 +6315,19 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6412,12 +6343,12 @@
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>If traffic between Azure regions must be encrypted, use global VNet peering to connect virtual networks across regions.</t>
+          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6439,14 +6370,14 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6462,12 +6393,12 @@
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
+          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6484,19 +6415,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6512,12 +6443,12 @@
       </c>
       <c r="B118" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6534,19 +6465,19 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6562,12 +6493,12 @@
       </c>
       <c r="B119" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Evaluate whether the latest version of NSG flow logs provides the level of detail that you need.</t>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6584,14 +6515,19 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6607,12 +6543,12 @@
       </c>
       <c r="B120" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
+          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6629,15 +6565,19 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I120" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I120" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6653,12 +6593,12 @@
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
+          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6675,15 +6615,19 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
-        </is>
-      </c>
-      <c r="I121" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6694,17 +6638,17 @@
     <row r="122" ht="16.5" customHeight="1" s="13">
       <c r="A122" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B122" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>If you need private communication to PaaS services, consider the different options available.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6721,19 +6665,19 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6744,17 +6688,17 @@
     <row r="123" ht="16.5" customHeight="1" s="13">
       <c r="A123" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B123" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Is the landing zone documented?</t>
+          <t>Azure PaaS services that have been injected into a virtual network still perform management plane operations by using public IP addresses. Ensure that this communication is not broken</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6769,13 +6713,21 @@
         </is>
       </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="n"/>
-      <c r="I123" s="16" t="n"/>
+      <c r="H123" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+        </is>
+      </c>
+      <c r="I123" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6786,17 +6738,17 @@
     <row r="124" ht="16.5" customHeight="1" s="13">
       <c r="A124" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B124" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6813,19 +6765,19 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6836,17 +6788,17 @@
     <row r="125" ht="16.5" customHeight="1" s="13">
       <c r="A125" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B125" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Access Azure PaaS services from on-premises via ExpressRoute private peering. This method avoids transiting over the public internet.</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6863,19 +6815,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6886,17 +6838,17 @@
     <row r="126" ht="16.5" customHeight="1" s="13">
       <c r="A126" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B126" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t>Use virtual network service endpoints when Private Link isn't available</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6913,19 +6865,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6936,17 +6888,17 @@
     <row r="127" ht="16.5" customHeight="1" s="13">
       <c r="A127" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B127" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6963,19 +6915,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6986,17 +6938,17 @@
     <row r="128" ht="16.5" customHeight="1" s="13">
       <c r="A128" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B128" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -7013,19 +6965,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -7036,17 +6988,17 @@
     <row r="129" ht="16.5" customHeight="1" s="13">
       <c r="A129" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B129" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7063,19 +7015,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7086,23 +7038,23 @@
     <row r="130" ht="16.5" customHeight="1" s="13">
       <c r="A130" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B130" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7113,14 +7065,19 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7131,17 +7088,17 @@
     <row r="131" ht="16.5" customHeight="1" s="13">
       <c r="A131" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B131" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7158,14 +7115,19 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7176,17 +7138,17 @@
     <row r="132" ht="16.5" customHeight="1" s="13">
       <c r="A132" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B132" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7203,14 +7165,19 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7221,17 +7188,17 @@
     <row r="133" ht="16.5" customHeight="1" s="13">
       <c r="A133" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B133" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7248,14 +7215,19 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7266,17 +7238,17 @@
     <row r="134" ht="16.5" customHeight="1" s="13">
       <c r="A134" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B134" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7293,14 +7265,19 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7311,17 +7288,17 @@
     <row r="135" ht="16.5" customHeight="1" s="13">
       <c r="A135" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B135" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7338,14 +7315,19 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7356,17 +7338,17 @@
     <row r="136" ht="16.5" customHeight="1" s="13">
       <c r="A136" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B136" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7383,14 +7365,19 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7401,17 +7388,17 @@
     <row r="137" ht="16.5" customHeight="1" s="13">
       <c r="A137" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B137" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7428,14 +7415,19 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7446,17 +7438,17 @@
     <row r="138" ht="16.5" customHeight="1" s="13">
       <c r="A138" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B138" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7473,14 +7465,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7491,17 +7483,17 @@
     <row r="139" ht="16.5" customHeight="1" s="13">
       <c r="A139" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B139" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+          <t>Use Virtual Hub Routing features to further segment traffic between VNets and branches.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7518,14 +7510,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7536,17 +7528,17 @@
     <row r="140" ht="16.5" customHeight="1" s="13">
       <c r="A140" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+          <t>Connect Virtual WAN hubs to on-premises datacenters by using ExpressRoute</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7563,14 +7555,19 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7581,17 +7578,17 @@
     <row r="141" ht="16.5" customHeight="1" s="13">
       <c r="A141" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
+          <t>Connect branches and remote locations to the nearest Virtual WAN hub via Site-to-Site VPN, or enable branch connectivity to Virtual WAN via an SD-WAN partner solution.</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7608,14 +7605,19 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7626,23 +7628,23 @@
     <row r="142" ht="16.5" customHeight="1" s="13">
       <c r="A142" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B142" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Connect users to the Virtual WAN hub via a Point-to-Site VPN.</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7653,14 +7655,19 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7671,17 +7678,17 @@
     <row r="143" ht="16.5" customHeight="1" s="13">
       <c r="A143" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B143" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7698,14 +7705,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7716,17 +7723,17 @@
     <row r="144" ht="16.5" customHeight="1" s="13">
       <c r="A144" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B144" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7743,14 +7750,19 @@
       <c r="G144" s="22" t="n"/>
       <c r="H144" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7761,17 +7773,17 @@
     <row r="145" ht="16.5" customHeight="1" s="13">
       <c r="A145" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B145" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>When deploying partner networking technologies and NVAs in VWAN, verify configuration with partner vendor's guidance to ensure there are no conflicting configurations</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7788,14 +7800,14 @@
       <c r="G145" s="22" t="n"/>
       <c r="H145" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7806,17 +7818,17 @@
     <row r="146" ht="16.5" customHeight="1" s="13">
       <c r="A146" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B146" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Ensure that Azure Virtual WAN and Azure Firewall resources are created in the connectivity subscription.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7833,14 +7845,14 @@
       <c r="G146" s="22" t="n"/>
       <c r="H146" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7851,17 +7863,17 @@
     <row r="147" ht="16.5" customHeight="1" s="13">
       <c r="A147" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B147" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7878,14 +7890,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7896,17 +7908,17 @@
     <row r="148" ht="16.5" customHeight="1" s="13">
       <c r="A148" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B148" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7923,14 +7935,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7941,23 +7953,23 @@
     <row r="149" ht="16.5" customHeight="1" s="13">
       <c r="A149" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
       <c r="E149" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7968,14 +7980,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7986,17 +7998,17 @@
     <row r="150" ht="16.5" customHeight="1" s="13">
       <c r="A150" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B150" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8013,14 +8025,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8031,17 +8043,17 @@
     <row r="151" ht="16.5" customHeight="1" s="13">
       <c r="A151" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B151" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8058,14 +8070,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8081,18 +8093,18 @@
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8103,14 +8115,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8126,12 +8138,12 @@
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8148,14 +8160,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8171,12 +8183,12 @@
       </c>
       <c r="B154" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
@@ -8193,14 +8205,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8216,18 +8228,18 @@
       </c>
       <c r="B155" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
       <c r="E155" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8238,14 +8250,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8261,18 +8273,18 @@
       </c>
       <c r="B156" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
       <c r="E156" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8283,14 +8295,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8306,18 +8318,18 @@
       </c>
       <c r="B157" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8328,14 +8340,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8351,18 +8363,18 @@
       </c>
       <c r="B158" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
       <c r="E158" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8373,14 +8385,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8396,18 +8408,18 @@
       </c>
       <c r="B159" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8418,14 +8430,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8441,12 +8453,12 @@
       </c>
       <c r="B160" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8463,14 +8475,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8486,12 +8498,12 @@
       </c>
       <c r="B161" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8508,14 +8520,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8531,18 +8543,18 @@
       </c>
       <c r="B162" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
       <c r="E162" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8553,14 +8565,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8576,12 +8588,12 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8598,14 +8610,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8626,13 +8638,13 @@
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8643,14 +8655,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8666,12 +8678,12 @@
       </c>
       <c r="B165" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8688,14 +8700,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8711,12 +8723,12 @@
       </c>
       <c r="B166" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8733,14 +8745,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8756,12 +8768,12 @@
       </c>
       <c r="B167" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8778,14 +8790,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8801,12 +8813,12 @@
       </c>
       <c r="B168" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8823,14 +8835,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8846,18 +8858,18 @@
       </c>
       <c r="B169" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
       <c r="E169" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8868,14 +8880,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8891,12 +8903,12 @@
       </c>
       <c r="B170" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8913,14 +8925,14 @@
       <c r="G170" s="22" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J170" s="23" t="n"/>
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8936,12 +8948,12 @@
       </c>
       <c r="B171" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8958,14 +8970,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8981,12 +8993,12 @@
       </c>
       <c r="B172" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C172" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D172" s="22" t="n"/>
@@ -9003,14 +9015,14 @@
       <c r="G172" s="22" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
       <c r="L172" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M172" s="26" t="n"/>
@@ -9026,12 +9038,12 @@
       </c>
       <c r="B173" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C173" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D173" s="22" t="n"/>
@@ -9048,14 +9060,14 @@
       <c r="G173" s="22" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9066,23 +9078,23 @@
     <row r="174" ht="16.5" customHeight="1" s="13">
       <c r="A174" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B174" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C174" s="22" t="inlineStr">
         <is>
-          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
         </is>
       </c>
       <c r="D174" s="22" t="n"/>
       <c r="E174" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9093,14 +9105,14 @@
       <c r="G174" s="22" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
       <c r="L174" s="26" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M174" s="26" t="n"/>
@@ -9116,12 +9128,12 @@
       </c>
       <c r="B175" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C175" s="22" t="inlineStr">
         <is>
-          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D175" s="22" t="n"/>
@@ -9138,14 +9150,14 @@
       <c r="G175" s="22" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
       <c r="L175" s="26" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M175" s="26" t="n"/>
@@ -9161,12 +9173,12 @@
       </c>
       <c r="B176" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C176" s="22" t="inlineStr">
         <is>
-          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D176" s="22" t="n"/>
@@ -9183,14 +9195,14 @@
       <c r="G176" s="22" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
       <c r="L176" s="26" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M176" s="26" t="n"/>
@@ -9201,23 +9213,23 @@
     <row r="177" ht="16.5" customHeight="1" s="13">
       <c r="A177" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B177" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C177" s="22" t="inlineStr">
         <is>
-          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D177" s="22" t="n"/>
       <c r="E177" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -9228,14 +9240,14 @@
       <c r="G177" s="22" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9246,17 +9258,17 @@
     <row r="178" ht="16.5" customHeight="1" s="13">
       <c r="A178" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B178" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C178" s="22" t="inlineStr">
         <is>
-          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D178" s="22" t="n"/>
@@ -9273,14 +9285,14 @@
       <c r="G178" s="22" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
       <c r="L178" s="26" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M178" s="26" t="n"/>
@@ -9291,17 +9303,17 @@
     <row r="179" ht="16.5" customHeight="1" s="13">
       <c r="A179" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B179" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C179" s="22" t="inlineStr">
         <is>
-          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D179" s="22" t="n"/>
@@ -9318,14 +9330,14 @@
       <c r="G179" s="22" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
       <c r="L179" s="26" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M179" s="26" t="n"/>
@@ -9341,18 +9353,18 @@
       </c>
       <c r="B180" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C180" s="22" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D180" s="22" t="n"/>
       <c r="E180" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9363,14 +9375,14 @@
       <c r="G180" s="22" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
       <c r="L180" s="26" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M180" s="26" t="n"/>
@@ -9381,23 +9393,23 @@
     <row r="181" ht="16.5" customHeight="1" s="13">
       <c r="A181" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B181" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C181" s="22" t="inlineStr">
         <is>
-          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D181" s="22" t="n"/>
       <c r="E181" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -9408,14 +9420,14 @@
       <c r="G181" s="22" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
       <c r="L181" s="26" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M181" s="26" t="n"/>
@@ -9426,17 +9438,17 @@
     <row r="182" ht="16.5" customHeight="1" s="13">
       <c r="A182" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B182" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C182" s="22" t="inlineStr">
         <is>
-          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D182" s="22" t="n"/>
@@ -9453,14 +9465,14 @@
       <c r="G182" s="22" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9471,23 +9483,23 @@
     <row r="183" ht="16.5" customHeight="1" s="13">
       <c r="A183" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B183" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C183" s="22" t="inlineStr">
         <is>
-          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D183" s="22" t="n"/>
       <c r="E183" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9498,14 +9510,14 @@
       <c r="G183" s="22" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9521,18 +9533,18 @@
       </c>
       <c r="B184" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C184" s="22" t="inlineStr">
         <is>
-          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D184" s="22" t="n"/>
       <c r="E184" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -9543,14 +9555,14 @@
       <c r="G184" s="22" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
       <c r="L184" s="26" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M184" s="26" t="n"/>
@@ -9566,18 +9578,18 @@
       </c>
       <c r="B185" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C185" s="22" t="inlineStr">
         <is>
-          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D185" s="22" t="n"/>
       <c r="E185" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9588,14 +9600,14 @@
       <c r="G185" s="22" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
       <c r="L185" s="26" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M185" s="26" t="n"/>
@@ -9606,17 +9618,17 @@
     <row r="186" ht="16.5" customHeight="1" s="13">
       <c r="A186" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B186" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C186" s="22" t="inlineStr">
         <is>
-          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D186" s="22" t="n"/>
@@ -9633,14 +9645,14 @@
       <c r="G186" s="22" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
       <c r="L186" s="26" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M186" s="26" t="n"/>
@@ -9656,18 +9668,18 @@
       </c>
       <c r="B187" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C187" s="22" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D187" s="22" t="n"/>
       <c r="E187" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -9678,14 +9690,14 @@
       <c r="G187" s="22" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
       <c r="L187" s="26" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M187" s="26" t="n"/>
@@ -9701,18 +9713,18 @@
       </c>
       <c r="B188" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C188" s="22" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D188" s="22" t="n"/>
       <c r="E188" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -9723,14 +9735,14 @@
       <c r="G188" s="22" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
       <c r="L188" s="26" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M188" s="26" t="n"/>
@@ -9746,12 +9758,12 @@
       </c>
       <c r="B189" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C189" s="22" t="inlineStr">
         <is>
-          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D189" s="22" t="n"/>
@@ -9768,14 +9780,14 @@
       <c r="G189" s="22" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
       <c r="L189" s="26" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M189" s="26" t="n"/>
@@ -9791,12 +9803,12 @@
       </c>
       <c r="B190" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C190" s="22" t="inlineStr">
         <is>
-          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D190" s="22" t="n"/>
@@ -9813,14 +9825,14 @@
       <c r="G190" s="22" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9836,12 +9848,12 @@
       </c>
       <c r="B191" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C191" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D191" s="22" t="n"/>
@@ -9858,14 +9870,14 @@
       <c r="G191" s="22" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
       <c r="L191" s="26" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M191" s="26" t="n"/>
@@ -9881,18 +9893,18 @@
       </c>
       <c r="B192" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C192" s="22" t="inlineStr">
         <is>
-          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D192" s="22" t="n"/>
       <c r="E192" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -9903,14 +9915,14 @@
       <c r="G192" s="22" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
       <c r="L192" s="26" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M192" s="26" t="n"/>
@@ -9926,12 +9938,12 @@
       </c>
       <c r="B193" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C193" s="22" t="inlineStr">
         <is>
-          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D193" s="22" t="n"/>
@@ -9948,14 +9960,14 @@
       <c r="G193" s="22" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
       <c r="L193" s="26" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M193" s="26" t="n"/>
@@ -9966,23 +9978,23 @@
     <row r="194" ht="16.5" customHeight="1" s="13">
       <c r="A194" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B194" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C194" s="22" t="inlineStr">
         <is>
-          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+          <t>Plan how new azure services will be implemented</t>
         </is>
       </c>
       <c r="D194" s="22" t="n"/>
       <c r="E194" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -9993,14 +10005,14 @@
       <c r="G194" s="22" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
       <c r="L194" s="26" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M194" s="26" t="n"/>
@@ -10011,17 +10023,17 @@
     <row r="195" ht="16.5" customHeight="1" s="13">
       <c r="A195" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B195" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C195" s="22" t="inlineStr">
         <is>
-          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+          <t>Plan how service request will be fulfilled for Azure services</t>
         </is>
       </c>
       <c r="D195" s="22" t="n"/>
@@ -10038,14 +10050,14 @@
       <c r="G195" s="22" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
       <c r="L195" s="26" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M195" s="26" t="n"/>

--- a/spreadsheet/lz_checklist.en.xlsx
+++ b/spreadsheet/lz_checklist.en.xlsx
@@ -4205,7 +4205,7 @@
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>If traffic between Azure regions must be encrypted, use global VNet peering to connect virtual networks across regions.</t>
+          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4222,7 +4222,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I72" s="16" t="inlineStr">
@@ -4234,7 +4234,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4250,18 +4250,18 @@
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4272,19 +4272,15 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I73" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
+      <c r="I73" s="16" t="n"/>
       <c r="J73" s="23" t="n"/>
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4305,13 +4301,13 @@
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4322,7 +4318,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4330,7 +4326,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4351,13 +4347,13 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4368,7 +4364,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4376,7 +4372,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4397,13 +4393,13 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4414,7 +4410,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4422,7 +4418,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4443,13 +4439,13 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4460,7 +4456,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4468,7 +4464,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4484,18 +4480,18 @@
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+          <t>Consider a network design based on the traditional hub-and-spoke network topology for the following scenarios: a network architecture deployed within a single Azure region; a network architecture spans multiple Azure regions with no need for transitive connectivity between virtual networks for landing zones across regions; a network architecture that spans multiple Azure regions with global VNet peering used to connect virtual networks across Azure regions; a network architecture with no need for transitive connectivity between VPN and ExpressRoute connections; the main hybrid connectivity method in place is ExpressRoute, and the number of VPN connections is less than 30 per VPN gateway; there's a dependency on centralized NVAs and granular routing.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4506,15 +4502,19 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
-        </is>
-      </c>
-      <c r="I78" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I78" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J78" s="23" t="n"/>
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Consider a network design based on the traditional hub-and-spoke network topology for the following scenarios: a network architecture deployed within a single Azure region; a network architecture spans multiple Azure regions with no need for transitive connectivity between virtual networks for landing zones across regions; a network architecture that spans multiple Azure regions with global VNet peering used to connect virtual networks across Azure regions; a network architecture with no need for transitive connectivity between VPN and ExpressRoute connections; the main hybrid connectivity method in place is ExpressRoute, and the number of VPN connections is less than 30 per VPN gateway; there's a dependency on centralized NVAs and granular routing.</t>
+          <t>Ensure that shared services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy Active Directory domain controllers and DNS servers.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4552,19 +4552,15 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I79" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+        </is>
+      </c>
+      <c r="I79" s="16" t="n"/>
       <c r="J79" s="23" t="n"/>
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4585,7 +4581,7 @@
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Ensure that shared services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy Active Directory domain controllers and DNS servers.</t>
+          <t>When deploying partner networking technologies or NVAs, follow the partner vendor's guidance</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4602,7 +4598,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4610,7 +4606,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4631,7 +4627,7 @@
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>When deploying partner networking technologies or NVAs, follow the partner vendor's guidance</t>
+          <t>Do not deploy inbound L7 services such as Azure Application Gateway as a shared service in the central-hub virtual network. Instead, deploy them together with the app in their respective landing zones.</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4648,7 +4644,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4656,7 +4652,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4677,7 +4673,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Do not deploy inbound L7 services such as Azure Application Gateway as a shared service in the central-hub virtual network. Instead, deploy them together with the app in their respective landing zones.</t>
+          <t>If you need transit between ExpressRoute and VPN gateways, use Azure Route Server.</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4694,7 +4690,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4702,7 +4698,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4723,7 +4719,7 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>If you need transit between ExpressRoute and VPN gateways, use Azure Route Server.</t>
+          <t xml:space="preserve">For network architectures with multiple hub-and-spoke topologies across Azure regions, use Global Virtual Network Peering to connect landing-zone virtual networks when a small number of landing zones need to communicate across regions. </t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4740,15 +4736,19 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
-        </is>
-      </c>
-      <c r="I83" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+        </is>
+      </c>
+      <c r="I83" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J83" s="23" t="n"/>
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">For network architectures with multiple hub-and-spoke topologies across Azure regions, use Global Virtual Network Peering to connect landing-zone virtual networks when a small number of landing zones need to communicate across regions. </t>
+          <t xml:space="preserve">When you deploy a hub-and-spoke network architecture in two Azure regions and transit connectivity between all landing zones across regions is required, use ExpressRoute with dual circuits to provide transit connectivity for landing-zone virtual networks across Azure regions. </t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4786,19 +4786,19 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
         </is>
       </c>
       <c r="I84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J84" s="23" t="n"/>
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4819,7 +4819,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">When you deploy a hub-and-spoke network architecture in two Azure regions and transit connectivity between all landing zones across regions is required, use ExpressRoute with dual circuits to provide transit connectivity for landing-zone virtual networks across Azure regions. </t>
+          <t>Use Azure Monitor for Networks to monitor the end-to-end state of the networks on Azure.</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4836,19 +4836,19 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
         </is>
       </c>
       <c r="I85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J85" s="23" t="n"/>
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for Networks to monitor the end-to-end state of the networks on Azure.</t>
+          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits and the maximum number of prefixes that can be advertised via ExpressRoute</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4886,19 +4886,15 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
-        </is>
-      </c>
-      <c r="I86" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I86" s="16" t="n"/>
       <c r="J86" s="23" t="n"/>
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4914,12 +4910,12 @@
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits and the maximum number of prefixes that can be advertised via ExpressRoute</t>
+          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4936,15 +4932,19 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I87" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4965,7 +4965,7 @@
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
+          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
@@ -4982,7 +4982,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I88" s="16" t="inlineStr">
@@ -4994,7 +4994,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5015,7 +5015,7 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
+          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
@@ -5044,7 +5044,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
+          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5082,7 +5082,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I90" s="16" t="inlineStr">
@@ -5094,7 +5094,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5115,7 +5115,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
+          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -5132,7 +5132,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://docs.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I91" s="16" t="inlineStr">
@@ -5144,7 +5144,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
+          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5182,7 +5182,7 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I92" s="16" t="inlineStr">
@@ -5194,7 +5194,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
+          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5232,7 +5232,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
@@ -5244,7 +5244,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
+          <t>Use ExpressRoute Global Reach to connect large offices, regional headquarters, or datacenters connected to Azure via ExpressRoute.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5282,7 +5282,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://docs.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
@@ -5294,7 +5294,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Use ExpressRoute Global Reach to connect large offices, regional headquarters, or datacenters connected to Azure via ExpressRoute.</t>
+          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5332,7 +5332,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I95" s="16" t="inlineStr">
@@ -5344,7 +5344,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5365,7 +5365,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
+          <t>Monitor ExpressRoute availability and utilization using built-in Azure Monitor metrics.</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5382,7 +5382,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
@@ -5394,7 +5394,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5415,7 +5415,7 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Monitor ExpressRoute availability and utilization using built-in Azure Monitor metrics.</t>
+          <t>Use Connection Monitor for connectivity monitoring across the environment.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5432,7 +5432,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
@@ -5444,7 +5444,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5465,7 +5465,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Use Connection Monitor for connectivity monitoring across the environment.</t>
+          <t>Don't explicitly use ExpressRoute circuits from a single peering location. Doing so creates a single point of failure and makes the organization susceptible to peering location outages.</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5482,7 +5482,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
@@ -5494,7 +5494,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5510,12 +5510,12 @@
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Don't explicitly use ExpressRoute circuits from a single peering location. Doing so creates a single point of failure and makes the organization susceptible to peering location outages.</t>
+          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5532,19 +5532,19 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5565,7 +5565,7 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations</t>
+          <t>Ensure to use IP addresses from the address allocation for private internets (RFC 1918).</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5594,7 +5594,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Ensure to use IP addresses from the address allocation for private internets (RFC 1918).</t>
+          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5644,7 +5644,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
+          <t>Ensure no public IP address range (CIDR block) for VNETs, especially if not owned by your organization</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5694,7 +5694,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Ensure no public IP address range (CIDR block) for VNETs, especially if not owned by your organization</t>
+          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5732,19 +5732,19 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J103" s="23" t="n"/>
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5765,7 +5765,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
+          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution. Create a delegated zone for name resolution (such as 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5782,7 +5782,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I104" s="16" t="inlineStr">
@@ -5794,7 +5794,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5815,7 +5815,7 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution. Create a delegated zone for name resolution (such as 'azure.contoso.com').</t>
+          <t>For environments where name resolution across Azure and on-premises is required, use existing DNS infrastructure (for example, Active Directory integrated DNS) deployed onto at least two virtual machines (VMs). Configure DNS settings in virtual networks to use those DNS servers.</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
@@ -5844,7 +5844,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>For environments where name resolution across Azure and on-premises is required, use existing DNS infrastructure (for example, Active Directory integrated DNS) deployed onto at least two virtual machines (VMs). Configure DNS settings in virtual networks to use those DNS servers.</t>
+          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
@@ -5885,16 +5885,12 @@
           <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
-      <c r="I106" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
+      <c r="I106" s="16" t="n"/>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5915,7 +5911,7 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
+          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5932,15 +5928,19 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I107" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I107" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5956,12 +5956,12 @@
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Inspection</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
+          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5978,19 +5978,19 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
+          <t>Evaluate whether the latest version of NSG flow logs provides the level of detail that you need.</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6028,19 +6028,15 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
-        </is>
-      </c>
-      <c r="I109" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I109" s="16" t="n"/>
       <c r="J109" s="23" t="n"/>
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6061,7 +6057,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Evaluate whether the latest version of NSG flow logs provides the level of detail that you need.</t>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6078,7 +6074,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -6086,7 +6082,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6107,7 +6103,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
+          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6124,14 +6120,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6147,12 +6143,12 @@
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6169,15 +6165,19 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
-        </is>
-      </c>
-      <c r="I112" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6198,7 +6198,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks. Firewall Manager is now in general availability for both Virtual WAN and regular virtual networks.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6215,7 +6215,7 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I113" s="16" t="inlineStr">
@@ -6227,7 +6227,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6248,7 +6248,7 @@
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks. Firewall Manager is now in general availability for both Virtual WAN and regular virtual networks.</t>
+          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6277,7 +6277,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6298,7 +6298,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6327,7 +6327,7 @@
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6348,7 +6348,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6370,14 +6370,14 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6398,7 +6398,7 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6415,7 +6415,7 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6427,7 +6427,7 @@
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6465,7 +6465,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I118" s="16" t="inlineStr">
@@ -6477,7 +6477,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6498,7 +6498,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6520,14 +6520,14 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6565,19 +6565,19 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6593,12 +6593,12 @@
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
+          <t>If you need private communication to PaaS services, consider the different options available.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6615,19 +6615,19 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>If you need private communication to PaaS services, consider the different options available.</t>
+          <t>Azure PaaS services that have been injected into a virtual network still perform management plane operations by using public IP addresses. Ensure that this communication is not broken</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6670,14 +6670,14 @@
       </c>
       <c r="I122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6698,7 +6698,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Azure PaaS services that have been injected into a virtual network still perform management plane operations by using public IP addresses. Ensure that this communication is not broken</t>
+          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6715,19 +6715,19 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6748,7 +6748,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
+          <t>Access Azure PaaS services from on-premises via ExpressRoute private peering. This method avoids transiting over the public internet.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6770,14 +6770,14 @@
       </c>
       <c r="I124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6798,7 +6798,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Access Azure PaaS services from on-premises via ExpressRoute private peering. This method avoids transiting over the public internet.</t>
+          <t>Use virtual network service endpoints when Private Link isn't available</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6820,14 +6820,14 @@
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6848,7 +6848,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Use virtual network service endpoints when Private Link isn't available</t>
+          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6877,7 +6877,7 @@
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6898,7 +6898,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
+          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6927,7 +6927,7 @@
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6948,7 +6948,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
+          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6977,7 +6977,7 @@
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6993,12 +6993,12 @@
       </c>
       <c r="B129" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
+          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7015,19 +7015,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7048,7 +7048,7 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
+          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
@@ -7065,19 +7065,19 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7098,7 +7098,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
+          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7115,7 +7115,7 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -7127,7 +7127,7 @@
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7148,7 +7148,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
+          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7165,7 +7165,7 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -7177,7 +7177,7 @@
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7198,7 +7198,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7220,14 +7220,14 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7248,7 +7248,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7270,14 +7270,14 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7298,7 +7298,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
+          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7320,14 +7320,14 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7343,12 +7343,12 @@
       </c>
       <c r="B136" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
+          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7365,19 +7365,19 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7398,7 +7398,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
+          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7415,19 +7415,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7448,7 +7443,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
+          <t>Use Virtual Hub Routing features to further segment traffic between VNets and branches.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7472,7 +7467,7 @@
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7493,7 +7488,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use Virtual Hub Routing features to further segment traffic between VNets and branches.</t>
+          <t>Connect Virtual WAN hubs to on-premises datacenters by using ExpressRoute</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7511,13 +7506,18 @@
       <c r="H139" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7538,7 +7538,7 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Connect Virtual WAN hubs to on-premises datacenters by using ExpressRoute</t>
+          <t>Connect branches and remote locations to the nearest Virtual WAN hub via Site-to-Site VPN, or enable branch connectivity to Virtual WAN via an SD-WAN partner solution.</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7560,14 +7560,14 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7588,7 +7588,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Connect branches and remote locations to the nearest Virtual WAN hub via Site-to-Site VPN, or enable branch connectivity to Virtual WAN via an SD-WAN partner solution.</t>
+          <t>Connect users to the Virtual WAN hub via a Point-to-Site VPN.</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7617,7 +7617,7 @@
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7638,7 +7638,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Connect users to the Virtual WAN hub via a Point-to-Site VPN.</t>
+          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7656,18 +7656,13 @@
       <c r="H142" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7688,7 +7683,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
+          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7706,13 +7701,18 @@
       <c r="H143" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7733,7 +7733,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall</t>
+          <t>When deploying partner networking technologies and NVAs in VWAN, verify configuration with partner vendor's guidance to ensure there are no conflicting configurations</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7751,18 +7751,13 @@
       <c r="H144" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7783,7 +7778,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>When deploying partner networking technologies and NVAs in VWAN, verify configuration with partner vendor's guidance to ensure there are no conflicting configurations</t>
+          <t>Ensure that Azure Virtual WAN and Azure Firewall resources are created in the connectivity subscription.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7807,7 +7802,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7828,7 +7823,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Ensure that Azure Virtual WAN and Azure Firewall resources are created in the connectivity subscription.</t>
+          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7845,14 +7840,14 @@
       <c r="G146" s="22" t="n"/>
       <c r="H146" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7873,7 +7868,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7890,14 +7885,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7908,23 +7903,23 @@
     <row r="148" ht="16.5" customHeight="1" s="13">
       <c r="A148" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B148" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
       <c r="E148" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7935,14 +7930,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7963,13 +7958,13 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
       <c r="E149" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7980,14 +7975,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8008,7 +8003,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8025,14 +8020,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8043,7 +8038,7 @@
     <row r="151" ht="16.5" customHeight="1" s="13">
       <c r="A151" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B151" s="22" t="inlineStr">
@@ -8053,13 +8048,13 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
       <c r="E151" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -8070,14 +8065,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8098,13 +8093,13 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8115,14 +8110,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8143,13 +8138,13 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
       <c r="E153" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8160,14 +8155,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8188,7 +8183,7 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
@@ -8205,14 +8200,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8233,7 +8228,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8250,14 +8245,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8278,7 +8273,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8295,14 +8290,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8323,7 +8318,7 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -8340,14 +8335,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8368,13 +8363,13 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
       <c r="E158" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8385,14 +8380,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8413,7 +8408,7 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
@@ -8430,14 +8425,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8458,7 +8453,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8475,14 +8470,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8503,13 +8498,13 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
       <c r="E161" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8520,14 +8515,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8548,13 +8543,13 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
       <c r="E162" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8565,14 +8560,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8588,18 +8583,18 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
       <c r="E163" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8610,14 +8605,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8638,13 +8633,13 @@
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8655,14 +8650,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8683,7 +8678,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8700,14 +8695,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8728,7 +8723,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8752,7 +8747,7 @@
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8773,7 +8768,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8797,7 +8792,7 @@
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8818,13 +8813,13 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
       <c r="E168" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8842,7 +8837,7 @@
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8863,13 +8858,13 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
       <c r="E169" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8887,7 +8882,7 @@
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8908,7 +8903,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8932,7 +8927,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8953,7 +8948,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8977,7 +8972,7 @@
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8998,7 +8993,7 @@
       </c>
       <c r="C172" s="22" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D172" s="22" t="n"/>
@@ -9015,14 +9010,14 @@
       <c r="G172" s="22" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
       <c r="L172" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M172" s="26" t="n"/>
@@ -9043,7 +9038,7 @@
       </c>
       <c r="C173" s="22" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
         </is>
       </c>
       <c r="D173" s="22" t="n"/>
@@ -9060,14 +9055,14 @@
       <c r="G173" s="22" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9083,18 +9078,18 @@
       </c>
       <c r="B174" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C174" s="22" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D174" s="22" t="n"/>
       <c r="E174" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9105,14 +9100,14 @@
       <c r="G174" s="22" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
       <c r="L174" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M174" s="26" t="n"/>
@@ -9133,13 +9128,13 @@
       </c>
       <c r="C175" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D175" s="22" t="n"/>
       <c r="E175" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9150,14 +9145,14 @@
       <c r="G175" s="22" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
       <c r="L175" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M175" s="26" t="n"/>
@@ -9178,7 +9173,7 @@
       </c>
       <c r="C176" s="22" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D176" s="22" t="n"/>
@@ -9195,14 +9190,14 @@
       <c r="G176" s="22" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
       <c r="L176" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M176" s="26" t="n"/>
@@ -9223,7 +9218,7 @@
       </c>
       <c r="C177" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D177" s="22" t="n"/>
@@ -9247,7 +9242,7 @@
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9268,7 +9263,7 @@
       </c>
       <c r="C178" s="22" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D178" s="22" t="n"/>
@@ -9292,7 +9287,7 @@
       <c r="K178" s="23" t="n"/>
       <c r="L178" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M178" s="26" t="n"/>
@@ -9313,7 +9308,7 @@
       </c>
       <c r="C179" s="22" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D179" s="22" t="n"/>
@@ -9337,7 +9332,7 @@
       <c r="K179" s="23" t="n"/>
       <c r="L179" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M179" s="26" t="n"/>
@@ -9358,7 +9353,7 @@
       </c>
       <c r="C180" s="22" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D180" s="22" t="n"/>
@@ -9382,7 +9377,7 @@
       <c r="K180" s="23" t="n"/>
       <c r="L180" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M180" s="26" t="n"/>
@@ -9403,7 +9398,7 @@
       </c>
       <c r="C181" s="22" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D181" s="22" t="n"/>
@@ -9420,14 +9415,14 @@
       <c r="G181" s="22" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
       <c r="L181" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M181" s="26" t="n"/>
@@ -9448,7 +9443,7 @@
       </c>
       <c r="C182" s="22" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D182" s="22" t="n"/>
@@ -9465,14 +9460,14 @@
       <c r="G182" s="22" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9493,7 +9488,7 @@
       </c>
       <c r="C183" s="22" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D183" s="22" t="n"/>
@@ -9510,14 +9505,14 @@
       <c r="G183" s="22" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9538,7 +9533,7 @@
       </c>
       <c r="C184" s="22" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D184" s="22" t="n"/>
@@ -9555,14 +9550,14 @@
       <c r="G184" s="22" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
       <c r="L184" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M184" s="26" t="n"/>
@@ -9583,7 +9578,7 @@
       </c>
       <c r="C185" s="22" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D185" s="22" t="n"/>
@@ -9607,7 +9602,7 @@
       <c r="K185" s="23" t="n"/>
       <c r="L185" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M185" s="26" t="n"/>
@@ -9623,12 +9618,12 @@
       </c>
       <c r="B186" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C186" s="22" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D186" s="22" t="n"/>
@@ -9645,14 +9640,14 @@
       <c r="G186" s="22" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
       <c r="L186" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M186" s="26" t="n"/>
@@ -9673,7 +9668,7 @@
       </c>
       <c r="C187" s="22" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D187" s="22" t="n"/>
@@ -9690,14 +9685,14 @@
       <c r="G187" s="22" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
       <c r="L187" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M187" s="26" t="n"/>
@@ -9718,7 +9713,7 @@
       </c>
       <c r="C188" s="22" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D188" s="22" t="n"/>
@@ -9735,14 +9730,14 @@
       <c r="G188" s="22" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
       <c r="L188" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M188" s="26" t="n"/>
@@ -9763,7 +9758,7 @@
       </c>
       <c r="C189" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D189" s="22" t="n"/>
@@ -9787,7 +9782,7 @@
       <c r="K189" s="23" t="n"/>
       <c r="L189" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M189" s="26" t="n"/>
@@ -9808,7 +9803,7 @@
       </c>
       <c r="C190" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D190" s="22" t="n"/>
@@ -9825,14 +9820,14 @@
       <c r="G190" s="22" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9853,7 +9848,7 @@
       </c>
       <c r="C191" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D191" s="22" t="n"/>
@@ -9870,14 +9865,14 @@
       <c r="G191" s="22" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
       <c r="L191" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M191" s="26" t="n"/>
@@ -9898,7 +9893,7 @@
       </c>
       <c r="C192" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D192" s="22" t="n"/>
@@ -9915,14 +9910,14 @@
       <c r="G192" s="22" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
       <c r="L192" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M192" s="26" t="n"/>
@@ -9943,7 +9938,7 @@
       </c>
       <c r="C193" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Plan how new azure services will be implemented</t>
         </is>
       </c>
       <c r="D193" s="22" t="n"/>
@@ -9960,14 +9955,14 @@
       <c r="G193" s="22" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
       <c r="L193" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M193" s="26" t="n"/>
@@ -9988,7 +9983,7 @@
       </c>
       <c r="C194" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Plan how service request will be fulfilled for Azure services</t>
         </is>
       </c>
       <c r="D194" s="22" t="n"/>
@@ -10012,7 +10007,7 @@
       <c r="K194" s="23" t="n"/>
       <c r="L194" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M194" s="26" t="n"/>
@@ -10023,17 +10018,17 @@
     <row r="195" ht="16.5" customHeight="1" s="13">
       <c r="A195" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B195" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C195" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
         </is>
       </c>
       <c r="D195" s="22" t="n"/>
@@ -10050,14 +10045,14 @@
       <c r="G195" s="22" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
       <c r="L195" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M195" s="26" t="n"/>
@@ -11617,7 +11612,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11701,7 +11696,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11758,43 +11753,43 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F195" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/lz_checklist.en.xlsx
+++ b/spreadsheet/lz_checklist.en.xlsx
@@ -1122,12 +1122,12 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I8" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J8" s="23" t="n"/>
@@ -1172,12 +1172,12 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J9" s="23" t="n"/>
@@ -1222,12 +1222,12 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
         </is>
       </c>
       <c r="I10" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="J10" s="23" t="n"/>
@@ -1272,12 +1272,12 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
         </is>
       </c>
       <c r="I11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J11" s="23" t="n"/>
@@ -1322,12 +1322,12 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J12" s="23" t="n"/>
@@ -1372,12 +1372,12 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J13" s="23" t="n"/>
@@ -1422,12 +1422,12 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J14" s="23" t="n"/>
@@ -1472,12 +1472,12 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J15" s="23" t="n"/>
@@ -1522,12 +1522,12 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
         </is>
       </c>
       <c r="I16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
+          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J16" s="23" t="n"/>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J17" s="23" t="n"/>
@@ -1622,12 +1622,12 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I18" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-active-directory/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
         </is>
       </c>
       <c r="J18" s="23" t="n"/>
@@ -1672,12 +1672,12 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I19" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J19" s="23" t="n"/>
@@ -1722,12 +1722,12 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="I20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
         </is>
       </c>
       <c r="J20" s="23" t="n"/>
@@ -1772,12 +1772,12 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
         </is>
       </c>
       <c r="I21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J21" s="23" t="n"/>
@@ -1822,12 +1822,12 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J22" s="23" t="n"/>
@@ -1872,12 +1872,12 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J23" s="23" t="n"/>
@@ -1922,12 +1922,12 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
         </is>
       </c>
       <c r="I24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J24" s="23" t="n"/>
@@ -1972,12 +1972,12 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J25" s="23" t="n"/>
@@ -2022,12 +2022,12 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J26" s="23" t="n"/>
@@ -2072,12 +2072,12 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
@@ -2122,7 +2122,7 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
@@ -2167,7 +2167,7 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
@@ -2212,7 +2212,7 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
@@ -2257,7 +2257,7 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
@@ -2302,7 +2302,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2348,12 +2348,12 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
         </is>
       </c>
       <c r="I33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
         </is>
       </c>
       <c r="J33" s="23" t="n"/>
@@ -2398,12 +2398,12 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
         </is>
       </c>
       <c r="I34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J34" s="23" t="n"/>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="I35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J35" s="23" t="n"/>
@@ -2498,12 +2498,12 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J36" s="23" t="n"/>
@@ -2548,12 +2548,12 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J37" s="23" t="n"/>
@@ -2598,12 +2598,12 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
         </is>
       </c>
       <c r="I38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J38" s="23" t="n"/>
@@ -2740,12 +2740,12 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J41" s="23" t="n"/>
@@ -2832,12 +2832,12 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J43" s="23" t="n"/>
@@ -2882,12 +2882,12 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J44" s="23" t="n"/>
@@ -2932,12 +2932,12 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
@@ -2982,12 +2982,12 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J46" s="23" t="n"/>
@@ -3032,12 +3032,12 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J47" s="23" t="n"/>
@@ -3082,12 +3082,12 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
@@ -3132,7 +3132,7 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
@@ -3177,7 +3177,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3223,7 +3223,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3269,7 +3269,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3315,7 +3315,7 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
@@ -3360,7 +3360,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3406,7 +3406,7 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
@@ -3451,7 +3451,7 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
@@ -3496,7 +3496,7 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
@@ -3541,7 +3541,7 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
@@ -3586,7 +3586,7 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
@@ -3631,7 +3631,7 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
@@ -3676,12 +3676,12 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
+          <t>For secure delivery of HTTP/S apps, ensure that WAF protection and policies are enabled in your Application Gateways</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3726,12 +3726,12 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-faq</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
+          <t>Ensure you are using Application Gateway v2 SKU</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3776,19 +3776,19 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
         </is>
       </c>
       <c r="I63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J63" s="23" t="n"/>
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
+          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3826,19 +3826,19 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J64" s="23" t="n"/>
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
+          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3876,19 +3876,19 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J65" s="23" t="n"/>
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
+          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3926,19 +3926,19 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
+          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3976,19 +3976,19 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J67" s="23" t="n"/>
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
+          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -4026,19 +4026,19 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J68" s="23" t="n"/>
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4059,13 +4059,13 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
+          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
       <c r="E69" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4076,19 +4076,19 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J69" s="23" t="n"/>
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4109,13 +4109,13 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
+          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
       <c r="E70" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4126,19 +4126,19 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J70" s="23" t="n"/>
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4154,12 +4154,12 @@
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
+          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4176,15 +4176,19 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I71" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I71" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J71" s="23" t="n"/>
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4205,7 +4209,7 @@
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
+          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4222,19 +4226,15 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I72" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I72" s="16" t="n"/>
       <c r="J72" s="23" t="n"/>
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4250,18 +4250,18 @@
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+          <t xml:space="preserve">For scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4272,15 +4272,19 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
-        </is>
-      </c>
-      <c r="I73" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I73" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J73" s="23" t="n"/>
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4301,13 +4305,13 @@
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4318,7 +4322,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4326,7 +4330,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4347,13 +4351,13 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4364,7 +4368,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4372,7 +4376,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4393,13 +4397,13 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+          <t>Disable health probes when there�s only one origin in an Azure Front Door origin group.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4410,7 +4414,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4418,7 +4422,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4439,13 +4443,13 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4456,7 +4460,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4464,7 +4468,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4480,18 +4484,18 @@
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Consider a network design based on the traditional hub-and-spoke network topology for the following scenarios: a network architecture deployed within a single Azure region; a network architecture spans multiple Azure regions with no need for transitive connectivity between virtual networks for landing zones across regions; a network architecture that spans multiple Azure regions with global VNet peering used to connect virtual networks across Azure regions; a network architecture with no need for transitive connectivity between VPN and ExpressRoute connections; the main hybrid connectivity method in place is ExpressRoute, and the number of VPN connections is less than 30 per VPN gateway; there's a dependency on centralized NVAs and granular routing.</t>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4502,19 +4506,15 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I78" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
+      <c r="I78" s="16" t="n"/>
       <c r="J78" s="23" t="n"/>
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Ensure that shared services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy Active Directory domain controllers and DNS servers.</t>
+          <t>Consider a network design based on the traditional hub-and-spoke network topology for the following scenarios: a network architecture deployed within a single Azure region; a network architecture spans multiple Azure regions with no need for transitive connectivity between virtual networks for landing zones across regions; a network architecture that spans multiple Azure regions with global VNet peering used to connect virtual networks across Azure regions; a network architecture with no need for transitive connectivity between VPN and ExpressRoute connections; the main hybrid connectivity method in place is ExpressRoute, and the number of VPN connections is less than 30 per VPN gateway; there's a dependency on centralized NVAs and granular routing.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4552,15 +4552,19 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
-        </is>
-      </c>
-      <c r="I79" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I79" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J79" s="23" t="n"/>
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4581,7 +4585,7 @@
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>When deploying partner networking technologies or NVAs, follow the partner vendor's guidance</t>
+          <t>Ensure that shared services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy Active Directory domain controllers and DNS servers.</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4598,7 +4602,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4606,7 +4610,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4627,7 +4631,7 @@
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Do not deploy inbound L7 services such as Azure Application Gateway as a shared service in the central-hub virtual network. Instead, deploy them together with the app in their respective landing zones.</t>
+          <t>When deploying partner networking technologies or NVAs, follow the partner vendor's guidance</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4644,7 +4648,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4652,7 +4656,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4673,7 +4677,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>If you need transit between ExpressRoute and VPN gateways, use Azure Route Server.</t>
+          <t>Do not deploy inbound L7 services such as Azure Application Gateway as a shared service in the central-hub virtual network. Instead, deploy them together with the app in their respective landing zones.</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4690,7 +4694,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4698,7 +4702,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4719,7 +4723,7 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">For network architectures with multiple hub-and-spoke topologies across Azure regions, use Global Virtual Network Peering to connect landing-zone virtual networks when a small number of landing zones need to communicate across regions. </t>
+          <t>If you need transit between ExpressRoute and VPN gateways, use Azure Route Server.</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4736,19 +4740,15 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I83" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I83" s="16" t="n"/>
       <c r="J83" s="23" t="n"/>
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">When you deploy a hub-and-spoke network architecture in two Azure regions and transit connectivity between all landing zones across regions is required, use ExpressRoute with dual circuits to provide transit connectivity for landing-zone virtual networks across Azure regions. </t>
+          <t xml:space="preserve">For network architectures with multiple hub-and-spoke topologies across Azure regions, use Global Virtual Network Peering to connect landing-zone virtual networks when a small number of landing zones need to communicate across regions. </t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4786,19 +4786,19 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J84" s="23" t="n"/>
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4819,7 +4819,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for Networks to monitor the end-to-end state of the networks on Azure.</t>
+          <t xml:space="preserve">When you deploy a hub-and-spoke network architecture in two Azure regions and transit connectivity between all landing zones across regions is required, use ExpressRoute with dual circuits to provide transit connectivity for landing-zone virtual networks across Azure regions. </t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4836,19 +4836,19 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs</t>
         </is>
       </c>
       <c r="I85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J85" s="23" t="n"/>
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits and the maximum number of prefixes that can be advertised via ExpressRoute</t>
+          <t>Use Azure Monitor for Networks to monitor the end-to-end state of the networks on Azure.</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4886,15 +4886,19 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I86" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I86" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J86" s="23" t="n"/>
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4910,12 +4914,12 @@
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
+          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits and the maximum number of prefixes that can be advertised via ExpressRoute</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4932,19 +4936,15 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I87" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="n"/>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4960,18 +4960,18 @@
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
+          <t>Use the setting 'Allow traffic to remote virtual network' when configuring VNet peerings</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4982,19 +4982,15 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
-        </is>
-      </c>
-      <c r="I88" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I88" s="16" t="n"/>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5015,7 +5011,7 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
+          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
@@ -5032,19 +5028,19 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5065,7 +5061,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
+          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5082,19 +5078,19 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5115,7 +5111,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
+          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -5132,19 +5128,19 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J91" s="23" t="n"/>
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5165,7 +5161,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
+          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5182,19 +5178,19 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5215,7 +5211,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
+          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5232,19 +5228,19 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J93" s="23" t="n"/>
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5265,7 +5261,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Use ExpressRoute Global Reach to connect large offices, regional headquarters, or datacenters connected to Azure via ExpressRoute.</t>
+          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5282,19 +5278,19 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J94" s="23" t="n"/>
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5315,7 +5311,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
+          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5332,19 +5328,19 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5365,7 +5361,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Monitor ExpressRoute availability and utilization using built-in Azure Monitor metrics.</t>
+          <t>Use ExpressRoute Global Reach to connect large offices, regional headquarters, or datacenters connected to Azure via ExpressRoute.</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5382,19 +5378,19 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5415,7 +5411,7 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Use Connection Monitor for connectivity monitoring across the environment.</t>
+          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5432,19 +5428,19 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J97" s="23" t="n"/>
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5465,7 +5461,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Don't explicitly use ExpressRoute circuits from a single peering location. Doing so creates a single point of failure and makes the organization susceptible to peering location outages.</t>
+          <t>Monitor ExpressRoute availability and utilization using built-in Azure Monitor metrics.</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5482,19 +5478,19 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J98" s="23" t="n"/>
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5510,12 +5506,12 @@
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations</t>
+          <t>Use Connection Monitor for connectivity monitoring across the environment.</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5532,19 +5528,19 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5560,12 +5556,12 @@
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Ensure to use IP addresses from the address allocation for private internets (RFC 1918).</t>
+          <t>Don't explicitly use ExpressRoute circuits from a single peering location. Doing so creates a single point of failure and makes the organization susceptible to peering location outages.</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5582,19 +5578,19 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J100" s="23" t="n"/>
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5615,7 +5611,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
+          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5632,19 +5628,19 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5665,7 +5661,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Ensure no public IP address range (CIDR block) for VNETs, especially if not owned by your organization</t>
+          <t>Ensure to use IP addresses from the address allocation for private internets (RFC 1918).</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5682,19 +5678,19 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J102" s="23" t="n"/>
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5715,7 +5711,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
+          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5732,19 +5728,19 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J103" s="23" t="n"/>
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5765,7 +5761,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution. Create a delegated zone for name resolution (such as 'azure.contoso.com').</t>
+          <t>Ensure no public IP address range (CIDR block) for VNETs, especially if not owned by your organization</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5782,19 +5778,19 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J104" s="23" t="n"/>
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5815,7 +5811,7 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>For environments where name resolution across Azure and on-premises is required, use existing DNS infrastructure (for example, Active Directory integrated DNS) deployed onto at least two virtual machines (VMs). Configure DNS settings in virtual networks to use those DNS servers.</t>
+          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
@@ -5832,19 +5828,19 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5865,7 +5861,7 @@
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
+          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution. Create a delegated zone for name resolution (such as 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
@@ -5882,15 +5878,19 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I106" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I106" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5911,7 +5911,7 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
+          <t>For environments where name resolution across Azure and on-premises is required, use existing DNS infrastructure (for example, Active Directory integrated DNS) deployed onto at least two virtual machines (VMs). Configure DNS settings in virtual networks to use those DNS servers.</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5928,19 +5928,19 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5956,12 +5956,12 @@
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
+          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5978,19 +5978,15 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
-        </is>
-      </c>
-      <c r="I108" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I108" s="16" t="n"/>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6006,12 +6002,12 @@
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Evaluate whether the latest version of NSG flow logs provides the level of detail that you need.</t>
+          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6028,15 +6024,19 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I109" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I109" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J109" s="23" t="n"/>
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
+          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6074,15 +6074,19 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I110" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I110" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J110" s="23" t="n"/>
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6103,7 +6107,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
+          <t>Evaluate whether the latest version of NSG flow logs provides the level of detail that you need.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6120,14 +6124,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6143,12 +6147,12 @@
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Inspection</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6165,19 +6169,15 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I112" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="n"/>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6193,12 +6193,12 @@
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Inspection</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks. Firewall Manager is now in general availability for both Virtual WAN and regular virtual networks.</t>
+          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6215,19 +6215,15 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I113" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I113" s="16" t="n"/>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6248,7 +6244,7 @@
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6265,19 +6261,19 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6298,7 +6294,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks. Firewall Manager is now in general availability for both Virtual WAN and regular virtual networks.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6315,19 +6311,19 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6348,7 +6344,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
+          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6365,19 +6361,19 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6398,7 +6394,7 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6415,19 +6411,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6448,7 +6444,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6465,19 +6461,19 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6498,7 +6494,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6515,19 +6511,19 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6548,7 +6544,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6565,19 +6561,19 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6593,12 +6589,12 @@
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>If you need private communication to PaaS services, consider the different options available.</t>
+          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6615,19 +6611,19 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6643,12 +6639,12 @@
       </c>
       <c r="B122" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Azure PaaS services that have been injected into a virtual network still perform management plane operations by using public IP addresses. Ensure that this communication is not broken</t>
+          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6665,19 +6661,19 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6698,7 +6694,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
+          <t>If you need private communication to PaaS services, consider the different options available.</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6715,19 +6711,19 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6748,7 +6744,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Access Azure PaaS services from on-premises via ExpressRoute private peering. This method avoids transiting over the public internet.</t>
+          <t>Azure PaaS services that have been injected into a virtual network still perform management plane operations by using public IP addresses. Ensure that this communication is not broken</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6765,19 +6761,19 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6798,7 +6794,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Use virtual network service endpoints when Private Link isn't available</t>
+          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6815,19 +6811,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6848,7 +6844,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
+          <t>Access Azure PaaS services from on-premises via ExpressRoute private peering. This method avoids transiting over the public internet.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6865,19 +6861,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6898,7 +6894,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
+          <t>Use virtual network service endpoints when Private Link isn't available</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6915,19 +6911,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6948,7 +6944,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
+          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6965,19 +6961,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6993,12 +6989,12 @@
       </c>
       <c r="B129" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
+          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7015,19 +7011,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7043,12 +7039,12 @@
       </c>
       <c r="B130" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
+          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
@@ -7065,19 +7061,19 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7098,7 +7094,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
+          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7115,19 +7111,19 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7148,7 +7144,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7165,19 +7161,19 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7198,7 +7194,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7215,19 +7211,19 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7248,7 +7244,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
+          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7265,19 +7261,19 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7298,7 +7294,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
+          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7315,19 +7311,19 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7343,12 +7339,12 @@
       </c>
       <c r="B136" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
+          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7365,19 +7361,19 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7393,12 +7389,12 @@
       </c>
       <c r="B137" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
+          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7415,14 +7411,19 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7443,7 +7444,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Use Virtual Hub Routing features to further segment traffic between VNets and branches.</t>
+          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7460,14 +7461,19 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7488,7 +7494,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Connect Virtual WAN hubs to on-premises datacenters by using ExpressRoute</t>
+          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7505,19 +7511,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7538,7 +7539,7 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Connect branches and remote locations to the nearest Virtual WAN hub via Site-to-Site VPN, or enable branch connectivity to Virtual WAN via an SD-WAN partner solution.</t>
+          <t>Use Virtual Hub Routing features to further segment traffic between VNets and branches.</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7555,19 +7556,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7588,7 +7584,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Connect users to the Virtual WAN hub via a Point-to-Site VPN.</t>
+          <t>Connect Virtual WAN hubs to on-premises datacenters by using ExpressRoute</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7605,19 +7601,19 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7638,7 +7634,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
+          <t>Connect branches and remote locations to the nearest Virtual WAN hub via Site-to-Site VPN, or enable branch connectivity to Virtual WAN via an SD-WAN partner solution.</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7655,14 +7651,19 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7683,7 +7684,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall</t>
+          <t>Connect users to the Virtual WAN hub via a Point-to-Site VPN.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7700,19 +7701,19 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7733,7 +7734,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>When deploying partner networking technologies and NVAs in VWAN, verify configuration with partner vendor's guidance to ensure there are no conflicting configurations</t>
+          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7750,14 +7751,14 @@
       <c r="G144" s="22" t="n"/>
       <c r="H144" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7778,7 +7779,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Ensure that Azure Virtual WAN and Azure Firewall resources are created in the connectivity subscription.</t>
+          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7795,14 +7796,19 @@
       <c r="G145" s="22" t="n"/>
       <c r="H145" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7823,7 +7829,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
+          <t>When deploying partner networking technologies and NVAs in VWAN, verify configuration with partner vendor's guidance to ensure there are no conflicting configurations</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7840,14 +7846,14 @@
       <c r="G146" s="22" t="n"/>
       <c r="H146" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7868,7 +7874,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
+          <t>Ensure that Azure Virtual WAN and Azure Firewall resources are created in the connectivity subscription.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7885,14 +7891,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7903,23 +7909,23 @@
     <row r="148" ht="16.5" customHeight="1" s="13">
       <c r="A148" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B148" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
       <c r="E148" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7930,14 +7936,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7948,17 +7954,17 @@
     <row r="149" ht="16.5" customHeight="1" s="13">
       <c r="A149" s="22" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7975,14 +7981,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8003,13 +8009,13 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
       <c r="E150" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -8020,14 +8026,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8038,7 +8044,7 @@
     <row r="151" ht="16.5" customHeight="1" s="13">
       <c r="A151" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B151" s="22" t="inlineStr">
@@ -8048,13 +8054,13 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
       <c r="E151" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -8065,14 +8071,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8083,7 +8089,7 @@
     <row r="152" ht="16.5" customHeight="1" s="13">
       <c r="A152" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B152" s="22" t="inlineStr">
@@ -8093,7 +8099,7 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
@@ -8110,14 +8116,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8138,7 +8144,7 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8155,14 +8161,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8183,13 +8189,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8200,14 +8206,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8228,7 +8234,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8245,14 +8251,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8273,7 +8279,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8290,14 +8296,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8318,7 +8324,7 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -8335,14 +8341,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8363,13 +8369,13 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
       <c r="E158" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8380,14 +8386,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8408,13 +8414,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8425,14 +8431,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8453,7 +8459,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8470,14 +8476,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8498,13 +8504,13 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
       <c r="E161" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8515,14 +8521,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8543,7 +8549,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8560,14 +8566,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8583,18 +8589,18 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
       <c r="E163" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8605,14 +8611,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8628,12 +8634,12 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8650,14 +8656,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8678,13 +8684,13 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
       <c r="E165" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8695,14 +8701,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8723,7 +8729,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8740,14 +8746,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8768,7 +8774,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8785,14 +8791,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8813,13 +8819,13 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
       <c r="E168" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8830,14 +8836,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8858,7 +8864,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8875,14 +8881,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8903,13 +8909,13 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
       <c r="E170" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8920,14 +8926,14 @@
       <c r="G170" s="22" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J170" s="23" t="n"/>
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8948,7 +8954,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8965,14 +8971,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8993,7 +8999,7 @@
       </c>
       <c r="C172" s="22" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
         </is>
       </c>
       <c r="D172" s="22" t="n"/>
@@ -9010,14 +9016,14 @@
       <c r="G172" s="22" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
       <c r="L172" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M172" s="26" t="n"/>
@@ -9038,7 +9044,7 @@
       </c>
       <c r="C173" s="22" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D173" s="22" t="n"/>
@@ -9055,14 +9061,14 @@
       <c r="G173" s="22" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9078,18 +9084,18 @@
       </c>
       <c r="B174" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C174" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D174" s="22" t="n"/>
       <c r="E174" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9100,14 +9106,14 @@
       <c r="G174" s="22" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
       <c r="L174" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M174" s="26" t="n"/>
@@ -9123,12 +9129,12 @@
       </c>
       <c r="B175" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C175" s="22" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
         </is>
       </c>
       <c r="D175" s="22" t="n"/>
@@ -9145,14 +9151,14 @@
       <c r="G175" s="22" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
       <c r="L175" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M175" s="26" t="n"/>
@@ -9173,13 +9179,13 @@
       </c>
       <c r="C176" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D176" s="22" t="n"/>
       <c r="E176" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9190,14 +9196,14 @@
       <c r="G176" s="22" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
       <c r="L176" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M176" s="26" t="n"/>
@@ -9218,7 +9224,7 @@
       </c>
       <c r="C177" s="22" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D177" s="22" t="n"/>
@@ -9235,14 +9241,14 @@
       <c r="G177" s="22" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9263,7 +9269,7 @@
       </c>
       <c r="C178" s="22" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D178" s="22" t="n"/>
@@ -9280,14 +9286,14 @@
       <c r="G178" s="22" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
       <c r="L178" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M178" s="26" t="n"/>
@@ -9308,7 +9314,7 @@
       </c>
       <c r="C179" s="22" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D179" s="22" t="n"/>
@@ -9325,14 +9331,14 @@
       <c r="G179" s="22" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
       <c r="L179" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M179" s="26" t="n"/>
@@ -9353,7 +9359,7 @@
       </c>
       <c r="C180" s="22" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D180" s="22" t="n"/>
@@ -9370,14 +9376,14 @@
       <c r="G180" s="22" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
       <c r="L180" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M180" s="26" t="n"/>
@@ -9398,7 +9404,7 @@
       </c>
       <c r="C181" s="22" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D181" s="22" t="n"/>
@@ -9415,14 +9421,14 @@
       <c r="G181" s="22" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
       <c r="L181" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M181" s="26" t="n"/>
@@ -9443,7 +9449,7 @@
       </c>
       <c r="C182" s="22" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D182" s="22" t="n"/>
@@ -9460,14 +9466,14 @@
       <c r="G182" s="22" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9488,7 +9494,7 @@
       </c>
       <c r="C183" s="22" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D183" s="22" t="n"/>
@@ -9505,14 +9511,14 @@
       <c r="G183" s="22" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9533,7 +9539,7 @@
       </c>
       <c r="C184" s="22" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D184" s="22" t="n"/>
@@ -9550,14 +9556,14 @@
       <c r="G184" s="22" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
       <c r="L184" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M184" s="26" t="n"/>
@@ -9578,7 +9584,7 @@
       </c>
       <c r="C185" s="22" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D185" s="22" t="n"/>
@@ -9595,14 +9601,14 @@
       <c r="G185" s="22" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
       <c r="L185" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M185" s="26" t="n"/>
@@ -9618,12 +9624,12 @@
       </c>
       <c r="B186" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C186" s="22" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D186" s="22" t="n"/>
@@ -9640,14 +9646,14 @@
       <c r="G186" s="22" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
       <c r="L186" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M186" s="26" t="n"/>
@@ -9663,12 +9669,12 @@
       </c>
       <c r="B187" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C187" s="22" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D187" s="22" t="n"/>
@@ -9685,14 +9691,14 @@
       <c r="G187" s="22" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
       <c r="L187" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M187" s="26" t="n"/>
@@ -9713,7 +9719,7 @@
       </c>
       <c r="C188" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D188" s="22" t="n"/>
@@ -9730,14 +9736,14 @@
       <c r="G188" s="22" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
       <c r="L188" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M188" s="26" t="n"/>
@@ -9758,7 +9764,7 @@
       </c>
       <c r="C189" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D189" s="22" t="n"/>
@@ -9775,14 +9781,14 @@
       <c r="G189" s="22" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
       <c r="L189" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M189" s="26" t="n"/>
@@ -9803,7 +9809,7 @@
       </c>
       <c r="C190" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D190" s="22" t="n"/>
@@ -9820,14 +9826,14 @@
       <c r="G190" s="22" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9848,7 +9854,7 @@
       </c>
       <c r="C191" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D191" s="22" t="n"/>
@@ -9865,14 +9871,14 @@
       <c r="G191" s="22" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
       <c r="L191" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M191" s="26" t="n"/>
@@ -9893,7 +9899,7 @@
       </c>
       <c r="C192" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D192" s="22" t="n"/>
@@ -9910,14 +9916,14 @@
       <c r="G192" s="22" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
       <c r="L192" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M192" s="26" t="n"/>
@@ -9938,7 +9944,7 @@
       </c>
       <c r="C193" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D193" s="22" t="n"/>
@@ -9955,14 +9961,14 @@
       <c r="G193" s="22" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
       <c r="L193" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M193" s="26" t="n"/>
@@ -9983,7 +9989,7 @@
       </c>
       <c r="C194" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D194" s="22" t="n"/>
@@ -10000,14 +10006,14 @@
       <c r="G194" s="22" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
       <c r="L194" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M194" s="26" t="n"/>
@@ -10018,17 +10024,17 @@
     <row r="195" ht="16.5" customHeight="1" s="13">
       <c r="A195" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B195" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C195" s="22" t="inlineStr">
         <is>
-          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+          <t>Plan how new azure services will be implemented</t>
         </is>
       </c>
       <c r="D195" s="22" t="n"/>
@@ -10045,14 +10051,14 @@
       <c r="G195" s="22" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
       <c r="L195" s="26" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M195" s="26" t="n"/>
@@ -10061,15 +10067,45 @@
       <c r="P195" s="26" t="n"/>
     </row>
     <row r="196" ht="16.5" customHeight="1" s="13">
-      <c r="A196" s="22" t="n"/>
-      <c r="B196" s="22" t="n"/>
-      <c r="C196" s="22" t="n"/>
+      <c r="A196" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B196" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C196" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D196" s="22" t="n"/>
-      <c r="E196" s="22" t="n"/>
+      <c r="E196" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G196" s="22" t="n"/>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J196" s="23" t="n"/>
       <c r="K196" s="23" t="n"/>
-      <c r="L196" s="26" t="n"/>
+      <c r="L196" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M196" s="26" t="n"/>
       <c r="N196" s="26" t="n"/>
       <c r="O196" s="26" t="n"/>
@@ -11789,7 +11825,7 @@
     <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F195" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F197" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
